--- a/docs/FPGA内存设置-v2.3.xlsx
+++ b/docs/FPGA内存设置-v2.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pu\easy-config-logic\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C13F2CC-11CA-4234-9FE3-6AEEF212D31E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD668A3-19DD-4C2B-9EF5-EE8C868E3D52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{285ED6D0-70BB-4540-A3BF-02424057D80B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{285ED6D0-70BB-4540-A3BF-02424057D80B}"/>
   </bookViews>
   <sheets>
     <sheet name="memory" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
   <si>
     <t>0-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1583,144 +1583,215 @@
     <t>divider_and_and_1</t>
   </si>
   <si>
+    <t>divider_and_A_2</t>
+  </si>
+  <si>
+    <t>divider_and_B_2</t>
+  </si>
+  <si>
+    <t>divider_and_C_2</t>
+  </si>
+  <si>
+    <t>divider_and_or_2</t>
+  </si>
+  <si>
+    <t>divider_and_and_2</t>
+  </si>
+  <si>
+    <t>divider_and_A_3</t>
+  </si>
+  <si>
+    <t>divider_and_B_3</t>
+  </si>
+  <si>
+    <t>divider_and_C_3</t>
+  </si>
+  <si>
+    <t>divider_and_or_3</t>
+  </si>
+  <si>
+    <t>divider_and_and_3</t>
+  </si>
+  <si>
+    <t>divider_and_A_4</t>
+  </si>
+  <si>
+    <t>divider_and_B_4</t>
+  </si>
+  <si>
+    <t>divider_and_C_4</t>
+  </si>
+  <si>
+    <t>divider_and_or_4</t>
+  </si>
+  <si>
+    <t>divider_and_and_4</t>
+  </si>
+  <si>
+    <t>divider_and_A_5</t>
+  </si>
+  <si>
+    <t>divider_and_B_5</t>
+  </si>
+  <si>
+    <t>divider_and_C_5</t>
+  </si>
+  <si>
+    <t>divider_and_or_5</t>
+  </si>
+  <si>
+    <t>divider_and_and_5</t>
+  </si>
+  <si>
+    <t>divider_and_A_6</t>
+  </si>
+  <si>
+    <t>divider_and_B_6</t>
+  </si>
+  <si>
+    <t>divider_and_C_6</t>
+  </si>
+  <si>
+    <t>divider_and_or_6</t>
+  </si>
+  <si>
+    <t>divider_and_and_6</t>
+  </si>
+  <si>
+    <t>divider_and_A_7</t>
+  </si>
+  <si>
+    <t>divider_and_B_7</t>
+  </si>
+  <si>
+    <t>divider_and_C_7</t>
+  </si>
+  <si>
+    <t>divider_and_or_7</t>
+  </si>
+  <si>
+    <t>divider_and_and_7</t>
+  </si>
+  <si>
+    <t>clock_divider_source_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock_divider_source_1</t>
+  </si>
+  <si>
+    <t>clock_divider_source_2</t>
+  </si>
+  <si>
+    <t>clock_divider_source_3</t>
+  </si>
+  <si>
+    <t>clock_divider_divisor_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock_divider_divisor_1</t>
+  </si>
+  <si>
+    <t>clock_divider_divisor_2</t>
+  </si>
+  <si>
+    <t>clock_divider_divisor_3</t>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_or_divider_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_or_divider_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_or_divider_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_or_divider_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_or_divider_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_or_divider_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_or_divider_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_or_divider_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_and_divider_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_and_divider_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_and_divider_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_and_divider_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_and_divider_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_and_divider_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_and_divider_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_and_divider_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>divider_and_divider_or_1</t>
-  </si>
-  <si>
-    <t>divider_and_A_2</t>
-  </si>
-  <si>
-    <t>divider_and_B_2</t>
-  </si>
-  <si>
-    <t>divider_and_C_2</t>
-  </si>
-  <si>
-    <t>divider_and_or_2</t>
-  </si>
-  <si>
-    <t>divider_and_and_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>divider_and_divider_or_2</t>
-  </si>
-  <si>
-    <t>divider_and_A_3</t>
-  </si>
-  <si>
-    <t>divider_and_B_3</t>
-  </si>
-  <si>
-    <t>divider_and_C_3</t>
-  </si>
-  <si>
-    <t>divider_and_or_3</t>
-  </si>
-  <si>
-    <t>divider_and_and_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>divider_and_divider_or_3</t>
-  </si>
-  <si>
-    <t>divider_and_A_4</t>
-  </si>
-  <si>
-    <t>divider_and_B_4</t>
-  </si>
-  <si>
-    <t>divider_and_C_4</t>
-  </si>
-  <si>
-    <t>divider_and_or_4</t>
-  </si>
-  <si>
-    <t>divider_and_and_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>divider_and_divider_or_4</t>
-  </si>
-  <si>
-    <t>divider_and_A_5</t>
-  </si>
-  <si>
-    <t>divider_and_B_5</t>
-  </si>
-  <si>
-    <t>divider_and_C_5</t>
-  </si>
-  <si>
-    <t>divider_and_or_5</t>
-  </si>
-  <si>
-    <t>divider_and_and_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>divider_and_divider_or_5</t>
-  </si>
-  <si>
-    <t>divider_and_A_6</t>
-  </si>
-  <si>
-    <t>divider_and_B_6</t>
-  </si>
-  <si>
-    <t>divider_and_C_6</t>
-  </si>
-  <si>
-    <t>divider_and_or_6</t>
-  </si>
-  <si>
-    <t>divider_and_and_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>divider_and_divider_or_6</t>
-  </si>
-  <si>
-    <t>divider_and_A_7</t>
-  </si>
-  <si>
-    <t>divider_and_B_7</t>
-  </si>
-  <si>
-    <t>divider_and_C_7</t>
-  </si>
-  <si>
-    <t>divider_and_or_7</t>
-  </si>
-  <si>
-    <t>divider_and_and_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>divider_and_divider_or_7</t>
-  </si>
-  <si>
-    <t>clock_divider_source_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock_divider_source_1</t>
-  </si>
-  <si>
-    <t>clock_divider_source_2</t>
-  </si>
-  <si>
-    <t>clock_divider_source_3</t>
-  </si>
-  <si>
-    <t>clock_divider_divisor_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock_divider_divisor_1</t>
-  </si>
-  <si>
-    <t>clock_divider_divisor_2</t>
-  </si>
-  <si>
-    <t>clock_divider_divisor_3</t>
-  </si>
-  <si>
-    <t>reset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2100,10 +2171,10 @@
   <dimension ref="A1:AW234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:AG4"/>
+      <selection pane="bottomRight" activeCell="N204" sqref="N204:AG204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2336,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -7958,14 +8029,16 @@
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1"/>
-      <c r="T152" s="1"/>
-      <c r="U152" s="1"/>
-      <c r="V152" s="1"/>
-      <c r="W152" s="1"/>
-      <c r="X152" s="1"/>
-      <c r="Y152" s="1"/>
+      <c r="R152" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3"/>
+      <c r="U152" s="3"/>
+      <c r="V152" s="3"/>
+      <c r="W152" s="3"/>
+      <c r="X152" s="3"/>
+      <c r="Y152" s="3"/>
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
@@ -8079,14 +8152,16 @@
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
-      <c r="R155" s="1"/>
-      <c r="S155" s="1"/>
-      <c r="T155" s="1"/>
-      <c r="U155" s="1"/>
-      <c r="V155" s="1"/>
-      <c r="W155" s="1"/>
-      <c r="X155" s="1"/>
-      <c r="Y155" s="1"/>
+      <c r="R155" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
+      <c r="U155" s="3"/>
+      <c r="V155" s="3"/>
+      <c r="W155" s="3"/>
+      <c r="X155" s="3"/>
+      <c r="Y155" s="3"/>
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
@@ -8200,14 +8275,16 @@
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
-      <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
-      <c r="V158" s="1"/>
-      <c r="W158" s="1"/>
-      <c r="X158" s="1"/>
-      <c r="Y158" s="1"/>
+      <c r="R158" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+      <c r="U158" s="3"/>
+      <c r="V158" s="3"/>
+      <c r="W158" s="3"/>
+      <c r="X158" s="3"/>
+      <c r="Y158" s="3"/>
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
@@ -8321,14 +8398,16 @@
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1"/>
-      <c r="T161" s="1"/>
-      <c r="U161" s="1"/>
-      <c r="V161" s="1"/>
-      <c r="W161" s="1"/>
-      <c r="X161" s="1"/>
-      <c r="Y161" s="1"/>
+      <c r="R161" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
@@ -8442,14 +8521,16 @@
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
-      <c r="R164" s="1"/>
-      <c r="S164" s="1"/>
-      <c r="T164" s="1"/>
-      <c r="U164" s="1"/>
-      <c r="V164" s="1"/>
-      <c r="W164" s="1"/>
-      <c r="X164" s="1"/>
-      <c r="Y164" s="1"/>
+      <c r="R164" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+      <c r="Y164" s="3"/>
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
@@ -8563,14 +8644,16 @@
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
-      <c r="T167" s="1"/>
-      <c r="U167" s="1"/>
-      <c r="V167" s="1"/>
-      <c r="W167" s="1"/>
-      <c r="X167" s="1"/>
-      <c r="Y167" s="1"/>
+      <c r="R167" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
+      <c r="Y167" s="3"/>
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
@@ -8684,14 +8767,16 @@
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
-      <c r="V170" s="1"/>
-      <c r="W170" s="1"/>
-      <c r="X170" s="1"/>
-      <c r="Y170" s="1"/>
+      <c r="R170" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="3"/>
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
@@ -8805,14 +8890,16 @@
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
-      <c r="V173" s="1"/>
-      <c r="W173" s="1"/>
-      <c r="X173" s="1"/>
-      <c r="Y173" s="1"/>
+      <c r="R173" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3"/>
+      <c r="U173" s="3"/>
+      <c r="V173" s="3"/>
+      <c r="W173" s="3"/>
+      <c r="X173" s="3"/>
+      <c r="Y173" s="3"/>
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
@@ -8927,7 +9014,7 @@
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
       <c r="R176" s="3" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="S176" s="3"/>
       <c r="T176" s="3"/>
@@ -8936,14 +9023,16 @@
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
-      <c r="Z176" s="1"/>
-      <c r="AA176" s="1"/>
-      <c r="AB176" s="1"/>
-      <c r="AC176" s="1"/>
-      <c r="AD176" s="1"/>
-      <c r="AE176" s="1"/>
-      <c r="AF176" s="1"/>
-      <c r="AG176" s="1"/>
+      <c r="Z176" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA176" s="3"/>
+      <c r="AB176" s="3"/>
+      <c r="AC176" s="3"/>
+      <c r="AD176" s="3"/>
+      <c r="AE176" s="3"/>
+      <c r="AF176" s="3"/>
+      <c r="AG176" s="3"/>
     </row>
     <row r="177" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A177">
@@ -9050,7 +9139,7 @@
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
       <c r="R179" s="3" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="S179" s="3"/>
       <c r="T179" s="3"/>
@@ -9059,21 +9148,23 @@
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
-      <c r="Z179" s="1"/>
-      <c r="AA179" s="1"/>
-      <c r="AB179" s="1"/>
-      <c r="AC179" s="1"/>
-      <c r="AD179" s="1"/>
-      <c r="AE179" s="1"/>
-      <c r="AF179" s="1"/>
-      <c r="AG179" s="1"/>
+      <c r="Z179" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA179" s="3"/>
+      <c r="AB179" s="3"/>
+      <c r="AC179" s="3"/>
+      <c r="AD179" s="3"/>
+      <c r="AE179" s="3"/>
+      <c r="AF179" s="3"/>
+      <c r="AG179" s="3"/>
     </row>
     <row r="180" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>177</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -9091,7 +9182,7 @@
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
       <c r="R180" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S180" s="3"/>
       <c r="T180" s="3"/>
@@ -9114,7 +9205,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -9132,7 +9223,7 @@
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
       <c r="R181" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S181" s="3"/>
       <c r="T181" s="3"/>
@@ -9155,7 +9246,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -9173,7 +9264,7 @@
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
       <c r="R182" s="3" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="S182" s="3"/>
       <c r="T182" s="3"/>
@@ -9182,21 +9273,23 @@
       <c r="W182" s="3"/>
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
-      <c r="Z182" s="1"/>
-      <c r="AA182" s="1"/>
-      <c r="AB182" s="1"/>
-      <c r="AC182" s="1"/>
-      <c r="AD182" s="1"/>
-      <c r="AE182" s="1"/>
-      <c r="AF182" s="1"/>
-      <c r="AG182" s="1"/>
+      <c r="Z182" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA182" s="3"/>
+      <c r="AB182" s="3"/>
+      <c r="AC182" s="3"/>
+      <c r="AD182" s="3"/>
+      <c r="AE182" s="3"/>
+      <c r="AF182" s="3"/>
+      <c r="AG182" s="3"/>
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>180</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -9214,7 +9307,7 @@
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
       <c r="R183" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="S183" s="3"/>
       <c r="T183" s="3"/>
@@ -9237,7 +9330,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -9255,7 +9348,7 @@
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
       <c r="R184" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="S184" s="3"/>
       <c r="T184" s="3"/>
@@ -9278,7 +9371,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -9296,7 +9389,7 @@
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
       <c r="R185" s="3" t="s">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="S185" s="3"/>
       <c r="T185" s="3"/>
@@ -9305,21 +9398,23 @@
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
-      <c r="Z185" s="1"/>
-      <c r="AA185" s="1"/>
-      <c r="AB185" s="1"/>
-      <c r="AC185" s="1"/>
-      <c r="AD185" s="1"/>
-      <c r="AE185" s="1"/>
-      <c r="AF185" s="1"/>
-      <c r="AG185" s="1"/>
+      <c r="Z185" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA185" s="3"/>
+      <c r="AB185" s="3"/>
+      <c r="AC185" s="3"/>
+      <c r="AD185" s="3"/>
+      <c r="AE185" s="3"/>
+      <c r="AF185" s="3"/>
+      <c r="AG185" s="3"/>
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>183</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -9337,7 +9432,7 @@
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
       <c r="R186" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="S186" s="3"/>
       <c r="T186" s="3"/>
@@ -9360,7 +9455,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -9378,7 +9473,7 @@
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
       <c r="R187" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="S187" s="3"/>
       <c r="T187" s="3"/>
@@ -9401,7 +9496,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -9419,7 +9514,7 @@
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
       <c r="R188" s="3" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="S188" s="3"/>
       <c r="T188" s="3"/>
@@ -9428,21 +9523,23 @@
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
-      <c r="Z188" s="1"/>
-      <c r="AA188" s="1"/>
-      <c r="AB188" s="1"/>
-      <c r="AC188" s="1"/>
-      <c r="AD188" s="1"/>
-      <c r="AE188" s="1"/>
-      <c r="AF188" s="1"/>
-      <c r="AG188" s="1"/>
+      <c r="Z188" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA188" s="3"/>
+      <c r="AB188" s="3"/>
+      <c r="AC188" s="3"/>
+      <c r="AD188" s="3"/>
+      <c r="AE188" s="3"/>
+      <c r="AF188" s="3"/>
+      <c r="AG188" s="3"/>
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>186</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -9460,7 +9557,7 @@
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
       <c r="R189" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
@@ -9483,7 +9580,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -9501,7 +9598,7 @@
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
       <c r="R190" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="S190" s="3"/>
       <c r="T190" s="3"/>
@@ -9524,7 +9621,7 @@
         <v>188</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -9542,7 +9639,7 @@
       <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
       <c r="R191" s="3" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="S191" s="3"/>
       <c r="T191" s="3"/>
@@ -9551,21 +9648,23 @@
       <c r="W191" s="3"/>
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
-      <c r="Z191" s="1"/>
-      <c r="AA191" s="1"/>
-      <c r="AB191" s="1"/>
-      <c r="AC191" s="1"/>
-      <c r="AD191" s="1"/>
-      <c r="AE191" s="1"/>
-      <c r="AF191" s="1"/>
-      <c r="AG191" s="1"/>
+      <c r="Z191" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA191" s="3"/>
+      <c r="AB191" s="3"/>
+      <c r="AC191" s="3"/>
+      <c r="AD191" s="3"/>
+      <c r="AE191" s="3"/>
+      <c r="AF191" s="3"/>
+      <c r="AG191" s="3"/>
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>189</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -9583,7 +9682,7 @@
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
       <c r="R192" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="S192" s="3"/>
       <c r="T192" s="3"/>
@@ -9606,7 +9705,7 @@
         <v>190</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -9624,7 +9723,7 @@
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
       <c r="R193" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="S193" s="3"/>
       <c r="T193" s="3"/>
@@ -9647,7 +9746,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -9665,7 +9764,7 @@
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
       <c r="R194" s="3" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="S194" s="3"/>
       <c r="T194" s="3"/>
@@ -9674,21 +9773,23 @@
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
-      <c r="Z194" s="1"/>
-      <c r="AA194" s="1"/>
-      <c r="AB194" s="1"/>
-      <c r="AC194" s="1"/>
-      <c r="AD194" s="1"/>
-      <c r="AE194" s="1"/>
-      <c r="AF194" s="1"/>
-      <c r="AG194" s="1"/>
+      <c r="Z194" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA194" s="3"/>
+      <c r="AB194" s="3"/>
+      <c r="AC194" s="3"/>
+      <c r="AD194" s="3"/>
+      <c r="AE194" s="3"/>
+      <c r="AF194" s="3"/>
+      <c r="AG194" s="3"/>
     </row>
     <row r="195" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>192</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -9706,7 +9807,7 @@
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
       <c r="R195" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="S195" s="3"/>
       <c r="T195" s="3"/>
@@ -9729,7 +9830,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -9747,7 +9848,7 @@
       <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
       <c r="R196" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="S196" s="3"/>
       <c r="T196" s="3"/>
@@ -9770,7 +9871,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -9788,7 +9889,7 @@
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
       <c r="R197" s="3" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="S197" s="3"/>
       <c r="T197" s="3"/>
@@ -9797,21 +9898,23 @@
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
-      <c r="Z197" s="1"/>
-      <c r="AA197" s="1"/>
-      <c r="AB197" s="1"/>
-      <c r="AC197" s="1"/>
-      <c r="AD197" s="1"/>
-      <c r="AE197" s="1"/>
-      <c r="AF197" s="1"/>
-      <c r="AG197" s="1"/>
+      <c r="Z197" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA197" s="3"/>
+      <c r="AB197" s="3"/>
+      <c r="AC197" s="3"/>
+      <c r="AD197" s="3"/>
+      <c r="AE197" s="3"/>
+      <c r="AF197" s="3"/>
+      <c r="AG197" s="3"/>
     </row>
     <row r="198" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>195</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -9821,7 +9924,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
@@ -9831,7 +9934,7 @@
       <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
       <c r="R198" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="S198" s="3"/>
       <c r="T198" s="3"/>
@@ -9841,7 +9944,7 @@
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
       <c r="Z198" s="3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
@@ -9856,7 +9959,7 @@
         <v>196</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -9895,7 +9998,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -9934,7 +10037,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -9973,7 +10076,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -11384,34 +11487,464 @@
       <c r="AG234" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="J206:M206"/>
-    <mergeCell ref="N206:AG206"/>
-    <mergeCell ref="B209:I209"/>
-    <mergeCell ref="J209:M209"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="J203:M203"/>
-    <mergeCell ref="N203:AG203"/>
-    <mergeCell ref="B204:I204"/>
-    <mergeCell ref="J204:M204"/>
-    <mergeCell ref="N204:AG204"/>
-    <mergeCell ref="B205:I205"/>
-    <mergeCell ref="J205:M205"/>
-    <mergeCell ref="N205:AG205"/>
-    <mergeCell ref="N209:AG209"/>
-    <mergeCell ref="B217:I217"/>
-    <mergeCell ref="J217:M217"/>
-    <mergeCell ref="N217:AG217"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="J210:M210"/>
-    <mergeCell ref="N210:AG210"/>
-    <mergeCell ref="B207:I207"/>
-    <mergeCell ref="J207:M207"/>
-    <mergeCell ref="N207:AG207"/>
-    <mergeCell ref="B208:I208"/>
-    <mergeCell ref="J208:M208"/>
-    <mergeCell ref="N208:AG208"/>
+  <mergeCells count="508">
+    <mergeCell ref="Z179:AG179"/>
+    <mergeCell ref="Z182:AG182"/>
+    <mergeCell ref="Z185:AG185"/>
+    <mergeCell ref="Z188:AG188"/>
+    <mergeCell ref="Z191:AG191"/>
+    <mergeCell ref="Z194:AG194"/>
+    <mergeCell ref="Z197:AG197"/>
+    <mergeCell ref="R191:Y191"/>
+    <mergeCell ref="R194:Y194"/>
+    <mergeCell ref="R197:Y197"/>
+    <mergeCell ref="Z198:AG198"/>
+    <mergeCell ref="R198:Y198"/>
+    <mergeCell ref="J198:Q198"/>
+    <mergeCell ref="B198:I198"/>
+    <mergeCell ref="B144:I144"/>
+    <mergeCell ref="J144:Q144"/>
+    <mergeCell ref="R144:Y144"/>
+    <mergeCell ref="Z144:AG144"/>
+    <mergeCell ref="B145:I145"/>
+    <mergeCell ref="J145:Q145"/>
+    <mergeCell ref="Z176:AG176"/>
+    <mergeCell ref="R179:Y179"/>
+    <mergeCell ref="R182:Y182"/>
+    <mergeCell ref="B188:Q188"/>
+    <mergeCell ref="B189:Q189"/>
+    <mergeCell ref="R189:AG189"/>
+    <mergeCell ref="B190:Q190"/>
+    <mergeCell ref="R190:AG190"/>
+    <mergeCell ref="R145:Y145"/>
+    <mergeCell ref="Z145:AG145"/>
+    <mergeCell ref="B149:Q149"/>
+    <mergeCell ref="B185:Q185"/>
+    <mergeCell ref="B186:Q186"/>
+    <mergeCell ref="R186:AG186"/>
+    <mergeCell ref="B187:Q187"/>
+    <mergeCell ref="R187:AG187"/>
+    <mergeCell ref="R149:AG149"/>
+    <mergeCell ref="B150:Q150"/>
+    <mergeCell ref="R150:AG150"/>
+    <mergeCell ref="B151:Q151"/>
+    <mergeCell ref="R151:AG151"/>
+    <mergeCell ref="B152:Q152"/>
+    <mergeCell ref="B153:Q153"/>
+    <mergeCell ref="R153:AG153"/>
+    <mergeCell ref="B154:Q154"/>
+    <mergeCell ref="R154:AG154"/>
+    <mergeCell ref="R152:Y152"/>
+    <mergeCell ref="R155:Y155"/>
+    <mergeCell ref="R158:Y158"/>
+    <mergeCell ref="R161:Y161"/>
+    <mergeCell ref="R164:Y164"/>
+    <mergeCell ref="R167:Y167"/>
+    <mergeCell ref="R170:Y170"/>
+    <mergeCell ref="R173:Y173"/>
+    <mergeCell ref="R176:Y176"/>
+    <mergeCell ref="B173:Q173"/>
+    <mergeCell ref="B174:Q174"/>
+    <mergeCell ref="R174:AG174"/>
+    <mergeCell ref="B175:Q175"/>
+    <mergeCell ref="R175:AG175"/>
+    <mergeCell ref="B176:Q176"/>
+    <mergeCell ref="B177:Q177"/>
+    <mergeCell ref="R177:AG177"/>
+    <mergeCell ref="B178:Q178"/>
+    <mergeCell ref="R178:AG178"/>
+    <mergeCell ref="B167:Q167"/>
+    <mergeCell ref="B168:Q168"/>
+    <mergeCell ref="R168:AG168"/>
+    <mergeCell ref="B169:Q169"/>
+    <mergeCell ref="R169:AG169"/>
+    <mergeCell ref="B170:Q170"/>
+    <mergeCell ref="B171:Q171"/>
+    <mergeCell ref="R171:AG171"/>
+    <mergeCell ref="B172:Q172"/>
+    <mergeCell ref="R172:AG172"/>
+    <mergeCell ref="B161:Q161"/>
+    <mergeCell ref="B162:Q162"/>
+    <mergeCell ref="R162:AG162"/>
+    <mergeCell ref="B163:Q163"/>
+    <mergeCell ref="R163:AG163"/>
+    <mergeCell ref="B164:Q164"/>
+    <mergeCell ref="B165:Q165"/>
+    <mergeCell ref="R165:AG165"/>
+    <mergeCell ref="B166:Q166"/>
+    <mergeCell ref="R166:AG166"/>
+    <mergeCell ref="B140:Q140"/>
+    <mergeCell ref="B141:Q141"/>
+    <mergeCell ref="B142:Q142"/>
+    <mergeCell ref="B143:Q143"/>
+    <mergeCell ref="B116:Q116"/>
+    <mergeCell ref="B117:Q117"/>
+    <mergeCell ref="B118:Q118"/>
+    <mergeCell ref="B119:Q119"/>
+    <mergeCell ref="R128:AG128"/>
+    <mergeCell ref="R129:AG129"/>
+    <mergeCell ref="R131:AG131"/>
+    <mergeCell ref="R132:AG132"/>
+    <mergeCell ref="R134:AG134"/>
+    <mergeCell ref="R135:AG135"/>
+    <mergeCell ref="R137:AG137"/>
+    <mergeCell ref="R138:AG138"/>
+    <mergeCell ref="R140:AG140"/>
+    <mergeCell ref="R141:AG141"/>
+    <mergeCell ref="R126:AG126"/>
+    <mergeCell ref="R113:AG113"/>
+    <mergeCell ref="R114:AG114"/>
+    <mergeCell ref="R116:AG116"/>
+    <mergeCell ref="R117:AG117"/>
+    <mergeCell ref="R119:AG119"/>
+    <mergeCell ref="R120:AG120"/>
+    <mergeCell ref="R122:AG122"/>
+    <mergeCell ref="R123:AG123"/>
+    <mergeCell ref="R125:AG125"/>
+    <mergeCell ref="R95:AG95"/>
+    <mergeCell ref="R96:AG96"/>
+    <mergeCell ref="R98:AG98"/>
+    <mergeCell ref="R99:AG99"/>
+    <mergeCell ref="R101:AG101"/>
+    <mergeCell ref="R102:AG102"/>
+    <mergeCell ref="R104:AG104"/>
+    <mergeCell ref="R105:AG105"/>
+    <mergeCell ref="R107:AG107"/>
+    <mergeCell ref="R108:AG108"/>
+    <mergeCell ref="R110:AG110"/>
+    <mergeCell ref="R111:AG111"/>
+    <mergeCell ref="B135:Q135"/>
+    <mergeCell ref="B136:Q136"/>
+    <mergeCell ref="B137:Q137"/>
+    <mergeCell ref="B138:Q138"/>
+    <mergeCell ref="B139:Q139"/>
+    <mergeCell ref="B130:Q130"/>
+    <mergeCell ref="B131:Q131"/>
+    <mergeCell ref="B132:Q132"/>
+    <mergeCell ref="B133:Q133"/>
+    <mergeCell ref="B134:Q134"/>
+    <mergeCell ref="B125:Q125"/>
+    <mergeCell ref="B126:Q126"/>
+    <mergeCell ref="B127:Q127"/>
+    <mergeCell ref="B128:Q128"/>
+    <mergeCell ref="B129:Q129"/>
+    <mergeCell ref="B120:Q120"/>
+    <mergeCell ref="B121:Q121"/>
+    <mergeCell ref="B122:Q122"/>
+    <mergeCell ref="B123:Q123"/>
+    <mergeCell ref="B124:Q124"/>
+    <mergeCell ref="B115:Q115"/>
+    <mergeCell ref="B110:Q110"/>
+    <mergeCell ref="B111:Q111"/>
+    <mergeCell ref="B112:Q112"/>
+    <mergeCell ref="B113:Q113"/>
+    <mergeCell ref="B114:Q114"/>
+    <mergeCell ref="B105:Q105"/>
+    <mergeCell ref="B106:Q106"/>
+    <mergeCell ref="B107:Q107"/>
+    <mergeCell ref="B108:Q108"/>
+    <mergeCell ref="B109:Q109"/>
+    <mergeCell ref="B100:Q100"/>
+    <mergeCell ref="B101:Q101"/>
+    <mergeCell ref="B102:Q102"/>
+    <mergeCell ref="B103:Q103"/>
+    <mergeCell ref="B104:Q104"/>
+    <mergeCell ref="B61:Q61"/>
+    <mergeCell ref="B96:Q96"/>
+    <mergeCell ref="B97:Q97"/>
+    <mergeCell ref="B98:Q98"/>
+    <mergeCell ref="B99:Q99"/>
+    <mergeCell ref="B92:Q92"/>
+    <mergeCell ref="B93:Q93"/>
+    <mergeCell ref="B94:Q94"/>
+    <mergeCell ref="B95:Q95"/>
+    <mergeCell ref="B67:Q67"/>
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="B69:Q69"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B63:Q63"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="B65:Q65"/>
+    <mergeCell ref="B66:Q66"/>
+    <mergeCell ref="R89:AG89"/>
+    <mergeCell ref="R90:AG90"/>
+    <mergeCell ref="R91:AG91"/>
+    <mergeCell ref="R92:AG92"/>
+    <mergeCell ref="R93:AG93"/>
+    <mergeCell ref="R84:AG84"/>
+    <mergeCell ref="R85:AG85"/>
+    <mergeCell ref="R86:AG86"/>
+    <mergeCell ref="R87:AG87"/>
+    <mergeCell ref="R88:AG88"/>
+    <mergeCell ref="R79:AG79"/>
+    <mergeCell ref="R80:AG80"/>
+    <mergeCell ref="R81:AG81"/>
+    <mergeCell ref="R82:AG82"/>
+    <mergeCell ref="R83:AG83"/>
+    <mergeCell ref="R74:AG74"/>
+    <mergeCell ref="R75:AG75"/>
+    <mergeCell ref="R76:AG76"/>
+    <mergeCell ref="R77:AG77"/>
+    <mergeCell ref="R78:AG78"/>
+    <mergeCell ref="R62:AG62"/>
+    <mergeCell ref="R63:AG63"/>
+    <mergeCell ref="R64:AG64"/>
+    <mergeCell ref="R65:AG65"/>
+    <mergeCell ref="R66:AG66"/>
+    <mergeCell ref="R67:AG67"/>
+    <mergeCell ref="R68:AG68"/>
+    <mergeCell ref="R69:AG69"/>
+    <mergeCell ref="R70:AG70"/>
+    <mergeCell ref="R71:AG71"/>
+    <mergeCell ref="R72:AG72"/>
+    <mergeCell ref="R73:AG73"/>
+    <mergeCell ref="B87:Q87"/>
+    <mergeCell ref="B88:Q88"/>
+    <mergeCell ref="B89:Q89"/>
+    <mergeCell ref="B90:Q90"/>
+    <mergeCell ref="B91:Q91"/>
+    <mergeCell ref="B82:Q82"/>
+    <mergeCell ref="B83:Q83"/>
+    <mergeCell ref="B84:Q84"/>
+    <mergeCell ref="B85:Q85"/>
+    <mergeCell ref="B86:Q86"/>
+    <mergeCell ref="B77:Q77"/>
+    <mergeCell ref="B78:Q78"/>
+    <mergeCell ref="B79:Q79"/>
+    <mergeCell ref="B80:Q80"/>
+    <mergeCell ref="B81:Q81"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B73:Q73"/>
+    <mergeCell ref="B74:Q74"/>
+    <mergeCell ref="B75:Q75"/>
+    <mergeCell ref="B76:Q76"/>
+    <mergeCell ref="B71:Q71"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="B59:Q59"/>
+    <mergeCell ref="R59:AG59"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="R60:Y60"/>
+    <mergeCell ref="B55:Q55"/>
+    <mergeCell ref="R55:AG55"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="R56:Y56"/>
+    <mergeCell ref="B57:Q57"/>
+    <mergeCell ref="R57:AG57"/>
+    <mergeCell ref="B52:Q52"/>
+    <mergeCell ref="R52:Y52"/>
+    <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="R53:AG53"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="R54:Y54"/>
+    <mergeCell ref="B49:Q49"/>
+    <mergeCell ref="R49:AG49"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="R50:Y50"/>
+    <mergeCell ref="B51:Q51"/>
+    <mergeCell ref="R51:AG51"/>
+    <mergeCell ref="B47:Q47"/>
+    <mergeCell ref="R47:AG47"/>
+    <mergeCell ref="B48:Q48"/>
+    <mergeCell ref="R48:Y48"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="R43:AG43"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="R44:Y44"/>
+    <mergeCell ref="B45:Q45"/>
+    <mergeCell ref="R45:AG45"/>
+    <mergeCell ref="R37:AG37"/>
+    <mergeCell ref="B38:Q38"/>
+    <mergeCell ref="R38:Y38"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="R39:AG39"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="R46:Y46"/>
+    <mergeCell ref="R41:AG41"/>
+    <mergeCell ref="B41:Q41"/>
+    <mergeCell ref="R40:Y40"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B5:AG5"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="R29:AG29"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="R30:Y30"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="R27:AG27"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="B4:AG4"/>
+    <mergeCell ref="B6:AG6"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="R7:AG7"/>
+    <mergeCell ref="R8:AG8"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="R9:AG9"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="R10:AG10"/>
+    <mergeCell ref="B11:Q11"/>
+    <mergeCell ref="R11:AG11"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="R12:AG12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:Y13"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:Y15"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:Y17"/>
+    <mergeCell ref="Z17:AG17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="Z18:AG18"/>
+    <mergeCell ref="R19:Y19"/>
+    <mergeCell ref="Z19:AG19"/>
+    <mergeCell ref="R20:Y20"/>
+    <mergeCell ref="Z20:AG20"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:Y24"/>
+    <mergeCell ref="Z24:AG24"/>
+    <mergeCell ref="Z21:AG21"/>
+    <mergeCell ref="R22:Y22"/>
+    <mergeCell ref="Z22:AG22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:Y23"/>
+    <mergeCell ref="Z23:AG23"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R21:Y21"/>
+    <mergeCell ref="B25:AG25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="B146:Q146"/>
+    <mergeCell ref="R146:AG146"/>
+    <mergeCell ref="B147:Q147"/>
+    <mergeCell ref="B148:Q148"/>
+    <mergeCell ref="R147:AG147"/>
+    <mergeCell ref="R148:AG148"/>
+    <mergeCell ref="R36:Y36"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="R34:Y34"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="R35:AG35"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="R33:AG33"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="R31:AG31"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="R32:Y32"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="R42:Y42"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B155:Q155"/>
+    <mergeCell ref="B156:Q156"/>
+    <mergeCell ref="R156:AG156"/>
+    <mergeCell ref="B157:Q157"/>
+    <mergeCell ref="R157:AG157"/>
+    <mergeCell ref="B158:Q158"/>
+    <mergeCell ref="B159:Q159"/>
+    <mergeCell ref="R159:AG159"/>
+    <mergeCell ref="B160:Q160"/>
+    <mergeCell ref="R160:AG160"/>
+    <mergeCell ref="B191:Q191"/>
+    <mergeCell ref="B179:Q179"/>
+    <mergeCell ref="B180:Q180"/>
+    <mergeCell ref="R180:AG180"/>
+    <mergeCell ref="B181:Q181"/>
+    <mergeCell ref="R181:AG181"/>
+    <mergeCell ref="B182:Q182"/>
+    <mergeCell ref="B199:AG199"/>
+    <mergeCell ref="B200:AG200"/>
+    <mergeCell ref="B192:Q192"/>
+    <mergeCell ref="R192:AG192"/>
+    <mergeCell ref="B193:Q193"/>
+    <mergeCell ref="R193:AG193"/>
+    <mergeCell ref="B194:Q194"/>
+    <mergeCell ref="B195:Q195"/>
+    <mergeCell ref="R195:AG195"/>
+    <mergeCell ref="B196:Q196"/>
+    <mergeCell ref="R196:AG196"/>
+    <mergeCell ref="R185:Y185"/>
+    <mergeCell ref="R188:Y188"/>
+    <mergeCell ref="B183:Q183"/>
+    <mergeCell ref="R183:AG183"/>
+    <mergeCell ref="B184:Q184"/>
+    <mergeCell ref="R184:AG184"/>
+    <mergeCell ref="B201:AG201"/>
+    <mergeCell ref="B202:AG202"/>
+    <mergeCell ref="B197:Q197"/>
+    <mergeCell ref="B234:I234"/>
+    <mergeCell ref="J234:M234"/>
+    <mergeCell ref="N234:AG234"/>
+    <mergeCell ref="B227:I227"/>
+    <mergeCell ref="J227:M227"/>
+    <mergeCell ref="N227:AG227"/>
+    <mergeCell ref="B228:I228"/>
+    <mergeCell ref="J228:M228"/>
+    <mergeCell ref="N228:AG228"/>
+    <mergeCell ref="B229:I229"/>
+    <mergeCell ref="J229:M229"/>
+    <mergeCell ref="N229:AG229"/>
+    <mergeCell ref="B230:I230"/>
+    <mergeCell ref="J230:M230"/>
+    <mergeCell ref="N230:AG230"/>
+    <mergeCell ref="B231:I231"/>
+    <mergeCell ref="J231:M231"/>
+    <mergeCell ref="N231:AG231"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="J232:M232"/>
+    <mergeCell ref="N232:AG232"/>
+    <mergeCell ref="B233:I233"/>
+    <mergeCell ref="J233:M233"/>
+    <mergeCell ref="N233:AG233"/>
+    <mergeCell ref="B226:I226"/>
+    <mergeCell ref="J226:M226"/>
+    <mergeCell ref="N226:AG226"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="J219:M219"/>
+    <mergeCell ref="N219:AG219"/>
+    <mergeCell ref="B220:I220"/>
+    <mergeCell ref="J220:M220"/>
+    <mergeCell ref="N220:AG220"/>
+    <mergeCell ref="B221:I221"/>
+    <mergeCell ref="J221:M221"/>
+    <mergeCell ref="N221:AG221"/>
+    <mergeCell ref="B222:I222"/>
+    <mergeCell ref="J222:M222"/>
+    <mergeCell ref="N222:AG222"/>
+    <mergeCell ref="B223:I223"/>
+    <mergeCell ref="J223:M223"/>
+    <mergeCell ref="N223:AG223"/>
+    <mergeCell ref="B224:I224"/>
+    <mergeCell ref="J224:M224"/>
+    <mergeCell ref="N224:AG224"/>
     <mergeCell ref="B225:I225"/>
     <mergeCell ref="J225:M225"/>
     <mergeCell ref="N225:AG225"/>
@@ -11436,447 +11969,33 @@
     <mergeCell ref="B216:I216"/>
     <mergeCell ref="J216:M216"/>
     <mergeCell ref="N216:AG216"/>
-    <mergeCell ref="B233:I233"/>
-    <mergeCell ref="J233:M233"/>
-    <mergeCell ref="N233:AG233"/>
-    <mergeCell ref="B226:I226"/>
-    <mergeCell ref="J226:M226"/>
-    <mergeCell ref="N226:AG226"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="J219:M219"/>
-    <mergeCell ref="N219:AG219"/>
-    <mergeCell ref="B220:I220"/>
-    <mergeCell ref="J220:M220"/>
-    <mergeCell ref="N220:AG220"/>
-    <mergeCell ref="B221:I221"/>
-    <mergeCell ref="J221:M221"/>
-    <mergeCell ref="N221:AG221"/>
-    <mergeCell ref="B222:I222"/>
-    <mergeCell ref="J222:M222"/>
-    <mergeCell ref="N222:AG222"/>
-    <mergeCell ref="B223:I223"/>
-    <mergeCell ref="J223:M223"/>
-    <mergeCell ref="N223:AG223"/>
-    <mergeCell ref="B224:I224"/>
-    <mergeCell ref="J224:M224"/>
-    <mergeCell ref="N224:AG224"/>
-    <mergeCell ref="B201:AG201"/>
-    <mergeCell ref="B202:AG202"/>
-    <mergeCell ref="B197:Q197"/>
-    <mergeCell ref="B234:I234"/>
-    <mergeCell ref="J234:M234"/>
-    <mergeCell ref="N234:AG234"/>
-    <mergeCell ref="B227:I227"/>
-    <mergeCell ref="J227:M227"/>
-    <mergeCell ref="N227:AG227"/>
-    <mergeCell ref="B228:I228"/>
-    <mergeCell ref="J228:M228"/>
-    <mergeCell ref="N228:AG228"/>
-    <mergeCell ref="B229:I229"/>
-    <mergeCell ref="J229:M229"/>
-    <mergeCell ref="N229:AG229"/>
-    <mergeCell ref="B230:I230"/>
-    <mergeCell ref="J230:M230"/>
-    <mergeCell ref="N230:AG230"/>
-    <mergeCell ref="B231:I231"/>
-    <mergeCell ref="J231:M231"/>
-    <mergeCell ref="N231:AG231"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="J232:M232"/>
-    <mergeCell ref="N232:AG232"/>
-    <mergeCell ref="B191:Q191"/>
-    <mergeCell ref="B179:Q179"/>
-    <mergeCell ref="B180:Q180"/>
-    <mergeCell ref="R180:AG180"/>
-    <mergeCell ref="B181:Q181"/>
-    <mergeCell ref="R181:AG181"/>
-    <mergeCell ref="B182:Q182"/>
-    <mergeCell ref="B199:AG199"/>
-    <mergeCell ref="B200:AG200"/>
-    <mergeCell ref="B192:Q192"/>
-    <mergeCell ref="R192:AG192"/>
-    <mergeCell ref="B193:Q193"/>
-    <mergeCell ref="R193:AG193"/>
-    <mergeCell ref="B194:Q194"/>
-    <mergeCell ref="B195:Q195"/>
-    <mergeCell ref="R195:AG195"/>
-    <mergeCell ref="B196:Q196"/>
-    <mergeCell ref="R196:AG196"/>
-    <mergeCell ref="B155:Q155"/>
-    <mergeCell ref="B156:Q156"/>
-    <mergeCell ref="R156:AG156"/>
-    <mergeCell ref="B157:Q157"/>
-    <mergeCell ref="R157:AG157"/>
-    <mergeCell ref="B158:Q158"/>
-    <mergeCell ref="B159:Q159"/>
-    <mergeCell ref="R159:AG159"/>
-    <mergeCell ref="B160:Q160"/>
-    <mergeCell ref="R160:AG160"/>
-    <mergeCell ref="B25:AG25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="B146:Q146"/>
-    <mergeCell ref="R146:AG146"/>
-    <mergeCell ref="B147:Q147"/>
-    <mergeCell ref="B148:Q148"/>
-    <mergeCell ref="R147:AG147"/>
-    <mergeCell ref="R148:AG148"/>
-    <mergeCell ref="R36:Y36"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="R34:Y34"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="R35:AG35"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="R33:AG33"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="R31:AG31"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="R32:Y32"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="R42:Y42"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:Y24"/>
-    <mergeCell ref="Z24:AG24"/>
-    <mergeCell ref="Z21:AG21"/>
-    <mergeCell ref="R22:Y22"/>
-    <mergeCell ref="Z22:AG22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:Y23"/>
-    <mergeCell ref="Z23:AG23"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R21:Y21"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R18:Y18"/>
-    <mergeCell ref="Z18:AG18"/>
-    <mergeCell ref="R19:Y19"/>
-    <mergeCell ref="Z19:AG19"/>
-    <mergeCell ref="R20:Y20"/>
-    <mergeCell ref="Z20:AG20"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:Y15"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:Y17"/>
-    <mergeCell ref="Z17:AG17"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="R12:AG12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:Y13"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="B5:AG5"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="R29:AG29"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="R30:Y30"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="R27:AG27"/>
-    <mergeCell ref="B28:Q28"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B6:AG6"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="R7:AG7"/>
-    <mergeCell ref="R8:AG8"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="R9:AG9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="R10:AG10"/>
-    <mergeCell ref="B11:Q11"/>
-    <mergeCell ref="R11:AG11"/>
-    <mergeCell ref="R37:AG37"/>
-    <mergeCell ref="B38:Q38"/>
-    <mergeCell ref="R38:Y38"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="R39:AG39"/>
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="R46:Y46"/>
-    <mergeCell ref="R41:AG41"/>
-    <mergeCell ref="B41:Q41"/>
-    <mergeCell ref="R40:Y40"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B47:Q47"/>
-    <mergeCell ref="R47:AG47"/>
-    <mergeCell ref="B48:Q48"/>
-    <mergeCell ref="R48:Y48"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="R43:AG43"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="R44:Y44"/>
-    <mergeCell ref="B45:Q45"/>
-    <mergeCell ref="R45:AG45"/>
-    <mergeCell ref="B52:Q52"/>
-    <mergeCell ref="R52:Y52"/>
-    <mergeCell ref="B53:Q53"/>
-    <mergeCell ref="R53:AG53"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="R54:Y54"/>
-    <mergeCell ref="B49:Q49"/>
-    <mergeCell ref="R49:AG49"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="R50:Y50"/>
-    <mergeCell ref="B51:Q51"/>
-    <mergeCell ref="R51:AG51"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="B59:Q59"/>
-    <mergeCell ref="R59:AG59"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="R60:Y60"/>
-    <mergeCell ref="B55:Q55"/>
-    <mergeCell ref="R55:AG55"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="R56:Y56"/>
-    <mergeCell ref="B57:Q57"/>
-    <mergeCell ref="R57:AG57"/>
-    <mergeCell ref="R71:AG71"/>
-    <mergeCell ref="R72:AG72"/>
-    <mergeCell ref="R73:AG73"/>
-    <mergeCell ref="B87:Q87"/>
-    <mergeCell ref="B88:Q88"/>
-    <mergeCell ref="B89:Q89"/>
-    <mergeCell ref="B90:Q90"/>
-    <mergeCell ref="B91:Q91"/>
-    <mergeCell ref="B82:Q82"/>
-    <mergeCell ref="B83:Q83"/>
-    <mergeCell ref="B84:Q84"/>
-    <mergeCell ref="B85:Q85"/>
-    <mergeCell ref="B86:Q86"/>
-    <mergeCell ref="B77:Q77"/>
-    <mergeCell ref="B78:Q78"/>
-    <mergeCell ref="B79:Q79"/>
-    <mergeCell ref="B80:Q80"/>
-    <mergeCell ref="B81:Q81"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B73:Q73"/>
-    <mergeCell ref="B74:Q74"/>
-    <mergeCell ref="B75:Q75"/>
-    <mergeCell ref="B76:Q76"/>
-    <mergeCell ref="B71:Q71"/>
-    <mergeCell ref="R62:AG62"/>
-    <mergeCell ref="R63:AG63"/>
-    <mergeCell ref="R64:AG64"/>
-    <mergeCell ref="R65:AG65"/>
-    <mergeCell ref="R66:AG66"/>
-    <mergeCell ref="R67:AG67"/>
-    <mergeCell ref="R68:AG68"/>
-    <mergeCell ref="R69:AG69"/>
-    <mergeCell ref="R70:AG70"/>
-    <mergeCell ref="R79:AG79"/>
-    <mergeCell ref="R80:AG80"/>
-    <mergeCell ref="R81:AG81"/>
-    <mergeCell ref="R82:AG82"/>
-    <mergeCell ref="R83:AG83"/>
-    <mergeCell ref="R74:AG74"/>
-    <mergeCell ref="R75:AG75"/>
-    <mergeCell ref="R76:AG76"/>
-    <mergeCell ref="R77:AG77"/>
-    <mergeCell ref="R78:AG78"/>
-    <mergeCell ref="R89:AG89"/>
-    <mergeCell ref="R90:AG90"/>
-    <mergeCell ref="R91:AG91"/>
-    <mergeCell ref="R92:AG92"/>
-    <mergeCell ref="R93:AG93"/>
-    <mergeCell ref="R84:AG84"/>
-    <mergeCell ref="R85:AG85"/>
-    <mergeCell ref="R86:AG86"/>
-    <mergeCell ref="R87:AG87"/>
-    <mergeCell ref="R88:AG88"/>
-    <mergeCell ref="B100:Q100"/>
-    <mergeCell ref="B101:Q101"/>
-    <mergeCell ref="B102:Q102"/>
-    <mergeCell ref="B103:Q103"/>
-    <mergeCell ref="B104:Q104"/>
-    <mergeCell ref="B61:Q61"/>
-    <mergeCell ref="B96:Q96"/>
-    <mergeCell ref="B97:Q97"/>
-    <mergeCell ref="B98:Q98"/>
-    <mergeCell ref="B99:Q99"/>
-    <mergeCell ref="B92:Q92"/>
-    <mergeCell ref="B93:Q93"/>
-    <mergeCell ref="B94:Q94"/>
-    <mergeCell ref="B95:Q95"/>
-    <mergeCell ref="B67:Q67"/>
-    <mergeCell ref="B68:Q68"/>
-    <mergeCell ref="B69:Q69"/>
-    <mergeCell ref="B70:Q70"/>
-    <mergeCell ref="B62:Q62"/>
-    <mergeCell ref="B63:Q63"/>
-    <mergeCell ref="B64:Q64"/>
-    <mergeCell ref="B65:Q65"/>
-    <mergeCell ref="B66:Q66"/>
-    <mergeCell ref="B110:Q110"/>
-    <mergeCell ref="B111:Q111"/>
-    <mergeCell ref="B112:Q112"/>
-    <mergeCell ref="B113:Q113"/>
-    <mergeCell ref="B114:Q114"/>
-    <mergeCell ref="B105:Q105"/>
-    <mergeCell ref="B106:Q106"/>
-    <mergeCell ref="B107:Q107"/>
-    <mergeCell ref="B108:Q108"/>
-    <mergeCell ref="B109:Q109"/>
-    <mergeCell ref="R108:AG108"/>
-    <mergeCell ref="R110:AG110"/>
-    <mergeCell ref="R111:AG111"/>
-    <mergeCell ref="B135:Q135"/>
-    <mergeCell ref="B136:Q136"/>
-    <mergeCell ref="B137:Q137"/>
-    <mergeCell ref="B138:Q138"/>
-    <mergeCell ref="B139:Q139"/>
-    <mergeCell ref="B130:Q130"/>
-    <mergeCell ref="B131:Q131"/>
-    <mergeCell ref="B132:Q132"/>
-    <mergeCell ref="B133:Q133"/>
-    <mergeCell ref="B134:Q134"/>
-    <mergeCell ref="B125:Q125"/>
-    <mergeCell ref="B126:Q126"/>
-    <mergeCell ref="B127:Q127"/>
-    <mergeCell ref="B128:Q128"/>
-    <mergeCell ref="B129:Q129"/>
-    <mergeCell ref="B120:Q120"/>
-    <mergeCell ref="B121:Q121"/>
-    <mergeCell ref="B122:Q122"/>
-    <mergeCell ref="B123:Q123"/>
-    <mergeCell ref="B124:Q124"/>
-    <mergeCell ref="B115:Q115"/>
-    <mergeCell ref="R95:AG95"/>
-    <mergeCell ref="R96:AG96"/>
-    <mergeCell ref="R98:AG98"/>
-    <mergeCell ref="R99:AG99"/>
-    <mergeCell ref="R101:AG101"/>
-    <mergeCell ref="R102:AG102"/>
-    <mergeCell ref="R104:AG104"/>
-    <mergeCell ref="R105:AG105"/>
-    <mergeCell ref="R107:AG107"/>
-    <mergeCell ref="R113:AG113"/>
-    <mergeCell ref="R114:AG114"/>
-    <mergeCell ref="R116:AG116"/>
-    <mergeCell ref="R117:AG117"/>
-    <mergeCell ref="R119:AG119"/>
-    <mergeCell ref="R120:AG120"/>
-    <mergeCell ref="R122:AG122"/>
-    <mergeCell ref="R123:AG123"/>
-    <mergeCell ref="R125:AG125"/>
-    <mergeCell ref="B140:Q140"/>
-    <mergeCell ref="B141:Q141"/>
-    <mergeCell ref="B142:Q142"/>
-    <mergeCell ref="B143:Q143"/>
-    <mergeCell ref="B116:Q116"/>
-    <mergeCell ref="B117:Q117"/>
-    <mergeCell ref="B118:Q118"/>
-    <mergeCell ref="B119:Q119"/>
-    <mergeCell ref="R128:AG128"/>
-    <mergeCell ref="R129:AG129"/>
-    <mergeCell ref="R131:AG131"/>
-    <mergeCell ref="R132:AG132"/>
-    <mergeCell ref="R134:AG134"/>
-    <mergeCell ref="R135:AG135"/>
-    <mergeCell ref="R137:AG137"/>
-    <mergeCell ref="R138:AG138"/>
-    <mergeCell ref="R140:AG140"/>
-    <mergeCell ref="R141:AG141"/>
-    <mergeCell ref="R126:AG126"/>
-    <mergeCell ref="B161:Q161"/>
-    <mergeCell ref="B162:Q162"/>
-    <mergeCell ref="R162:AG162"/>
-    <mergeCell ref="B163:Q163"/>
-    <mergeCell ref="R163:AG163"/>
-    <mergeCell ref="B164:Q164"/>
-    <mergeCell ref="B165:Q165"/>
-    <mergeCell ref="R165:AG165"/>
-    <mergeCell ref="B166:Q166"/>
-    <mergeCell ref="R166:AG166"/>
-    <mergeCell ref="B167:Q167"/>
-    <mergeCell ref="B168:Q168"/>
-    <mergeCell ref="R168:AG168"/>
-    <mergeCell ref="B169:Q169"/>
-    <mergeCell ref="R169:AG169"/>
-    <mergeCell ref="B170:Q170"/>
-    <mergeCell ref="B171:Q171"/>
-    <mergeCell ref="R171:AG171"/>
-    <mergeCell ref="B172:Q172"/>
-    <mergeCell ref="R172:AG172"/>
-    <mergeCell ref="B173:Q173"/>
-    <mergeCell ref="B174:Q174"/>
-    <mergeCell ref="R174:AG174"/>
-    <mergeCell ref="B175:Q175"/>
-    <mergeCell ref="R175:AG175"/>
-    <mergeCell ref="B176:Q176"/>
-    <mergeCell ref="B177:Q177"/>
-    <mergeCell ref="R177:AG177"/>
-    <mergeCell ref="B178:Q178"/>
-    <mergeCell ref="R178:AG178"/>
-    <mergeCell ref="R185:Y185"/>
-    <mergeCell ref="R188:Y188"/>
-    <mergeCell ref="B183:Q183"/>
-    <mergeCell ref="R183:AG183"/>
-    <mergeCell ref="B184:Q184"/>
-    <mergeCell ref="R184:AG184"/>
-    <mergeCell ref="B185:Q185"/>
-    <mergeCell ref="B186:Q186"/>
-    <mergeCell ref="R186:AG186"/>
-    <mergeCell ref="B187:Q187"/>
-    <mergeCell ref="R187:AG187"/>
-    <mergeCell ref="R149:AG149"/>
-    <mergeCell ref="B150:Q150"/>
-    <mergeCell ref="R150:AG150"/>
-    <mergeCell ref="B151:Q151"/>
-    <mergeCell ref="R151:AG151"/>
-    <mergeCell ref="B152:Q152"/>
-    <mergeCell ref="B153:Q153"/>
-    <mergeCell ref="R153:AG153"/>
-    <mergeCell ref="B154:Q154"/>
-    <mergeCell ref="R154:AG154"/>
-    <mergeCell ref="R191:Y191"/>
-    <mergeCell ref="R194:Y194"/>
-    <mergeCell ref="R197:Y197"/>
-    <mergeCell ref="Z198:AG198"/>
-    <mergeCell ref="R198:Y198"/>
-    <mergeCell ref="J198:Q198"/>
-    <mergeCell ref="B198:I198"/>
-    <mergeCell ref="B144:I144"/>
-    <mergeCell ref="J144:Q144"/>
-    <mergeCell ref="R144:Y144"/>
-    <mergeCell ref="Z144:AG144"/>
-    <mergeCell ref="B145:I145"/>
-    <mergeCell ref="J145:Q145"/>
-    <mergeCell ref="R176:Y176"/>
-    <mergeCell ref="R179:Y179"/>
-    <mergeCell ref="R182:Y182"/>
-    <mergeCell ref="B188:Q188"/>
-    <mergeCell ref="B189:Q189"/>
-    <mergeCell ref="R189:AG189"/>
-    <mergeCell ref="B190:Q190"/>
-    <mergeCell ref="R190:AG190"/>
-    <mergeCell ref="R145:Y145"/>
-    <mergeCell ref="Z145:AG145"/>
-    <mergeCell ref="B149:Q149"/>
+    <mergeCell ref="B217:I217"/>
+    <mergeCell ref="J217:M217"/>
+    <mergeCell ref="N217:AG217"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="J210:M210"/>
+    <mergeCell ref="N210:AG210"/>
+    <mergeCell ref="B207:I207"/>
+    <mergeCell ref="J207:M207"/>
+    <mergeCell ref="N207:AG207"/>
+    <mergeCell ref="B208:I208"/>
+    <mergeCell ref="J208:M208"/>
+    <mergeCell ref="N208:AG208"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="J206:M206"/>
+    <mergeCell ref="N206:AG206"/>
+    <mergeCell ref="B209:I209"/>
+    <mergeCell ref="J209:M209"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="J203:M203"/>
+    <mergeCell ref="N203:AG203"/>
+    <mergeCell ref="B204:I204"/>
+    <mergeCell ref="J204:M204"/>
+    <mergeCell ref="N204:AG204"/>
+    <mergeCell ref="B205:I205"/>
+    <mergeCell ref="J205:M205"/>
+    <mergeCell ref="N205:AG205"/>
+    <mergeCell ref="N209:AG209"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/FPGA内存设置-v2.3.xlsx
+++ b/docs/FPGA内存设置-v2.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\pu\easy-config-logic\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD668A3-19DD-4C2B-9EF5-EE8C868E3D52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D6897-DBA7-4DE1-A6A5-25EBBC78BACB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592" xr2:uid="{285ED6D0-70BB-4540-A3BF-02424057D80B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{285ED6D0-70BB-4540-A3BF-02424057D80B}"/>
   </bookViews>
   <sheets>
     <sheet name="memory" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="545">
   <si>
     <t>0-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1363,26 +1363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>divider_gate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary_clock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scaler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112-143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trigger_all_out_enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1792,6 +1772,74 @@
   </si>
   <si>
     <t>divider_and_divider_or_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_or_gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112-119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divider_and_gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>external_clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal_clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124-127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scaler clock source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal_clock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1838,7 +1886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1853,6 +1901,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2170,11 +2221,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE2AB41-0D0D-4A1C-B58C-ECDE1DCEBB38}">
   <dimension ref="A1:AW234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N204" sqref="N204:AG204"/>
+      <selection pane="bottomRight" activeCell="J203" sqref="J203:M203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2336,7 +2387,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -3247,7 +3298,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3286,7 +3337,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3296,7 +3347,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -7807,7 +7858,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -7825,7 +7876,7 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
@@ -7848,7 +7899,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -7866,7 +7917,7 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
@@ -7889,7 +7940,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -7907,7 +7958,7 @@
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
       <c r="R149" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
@@ -7930,7 +7981,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -7948,7 +7999,7 @@
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
       <c r="R150" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
@@ -7971,7 +8022,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -7989,7 +8040,7 @@
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
       <c r="R151" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
@@ -8012,7 +8063,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -8030,7 +8081,7 @@
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
       <c r="R152" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
@@ -8053,7 +8104,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -8071,7 +8122,7 @@
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
       <c r="R153" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
@@ -8094,7 +8145,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -8112,7 +8163,7 @@
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
       <c r="R154" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
@@ -8135,7 +8186,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -8153,7 +8204,7 @@
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
       <c r="R155" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="S155" s="3"/>
       <c r="T155" s="3"/>
@@ -8176,7 +8227,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -8194,7 +8245,7 @@
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
       <c r="R156" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="S156" s="3"/>
       <c r="T156" s="3"/>
@@ -8217,7 +8268,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -8235,7 +8286,7 @@
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
       <c r="R157" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="S157" s="3"/>
       <c r="T157" s="3"/>
@@ -8258,7 +8309,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -8276,7 +8327,7 @@
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
       <c r="R158" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="S158" s="3"/>
       <c r="T158" s="3"/>
@@ -8299,7 +8350,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -8317,7 +8368,7 @@
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
       <c r="R159" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="S159" s="3"/>
       <c r="T159" s="3"/>
@@ -8340,7 +8391,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -8358,7 +8409,7 @@
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
       <c r="R160" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="S160" s="3"/>
       <c r="T160" s="3"/>
@@ -8381,7 +8432,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -8399,7 +8450,7 @@
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
       <c r="R161" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="S161" s="3"/>
       <c r="T161" s="3"/>
@@ -8422,7 +8473,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -8440,7 +8491,7 @@
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
       <c r="R162" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="S162" s="3"/>
       <c r="T162" s="3"/>
@@ -8463,7 +8514,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -8481,7 +8532,7 @@
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
       <c r="R163" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="S163" s="3"/>
       <c r="T163" s="3"/>
@@ -8504,7 +8555,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -8522,7 +8573,7 @@
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
       <c r="R164" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="S164" s="3"/>
       <c r="T164" s="3"/>
@@ -8545,7 +8596,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -8563,7 +8614,7 @@
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
       <c r="R165" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="S165" s="3"/>
       <c r="T165" s="3"/>
@@ -8586,7 +8637,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -8604,7 +8655,7 @@
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
       <c r="R166" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="S166" s="3"/>
       <c r="T166" s="3"/>
@@ -8627,7 +8678,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -8645,7 +8696,7 @@
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
       <c r="R167" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="S167" s="3"/>
       <c r="T167" s="3"/>
@@ -8668,7 +8719,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -8686,7 +8737,7 @@
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
       <c r="R168" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="S168" s="3"/>
       <c r="T168" s="3"/>
@@ -8709,7 +8760,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -8727,7 +8778,7 @@
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
       <c r="R169" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="S169" s="3"/>
       <c r="T169" s="3"/>
@@ -8750,7 +8801,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -8768,7 +8819,7 @@
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
       <c r="R170" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="S170" s="3"/>
       <c r="T170" s="3"/>
@@ -8791,7 +8842,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -8809,7 +8860,7 @@
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
       <c r="R171" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="S171" s="3"/>
       <c r="T171" s="3"/>
@@ -8832,7 +8883,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -8850,7 +8901,7 @@
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
       <c r="R172" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="S172" s="3"/>
       <c r="T172" s="3"/>
@@ -8873,7 +8924,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -8891,7 +8942,7 @@
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
       <c r="R173" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="S173" s="3"/>
       <c r="T173" s="3"/>
@@ -8914,7 +8965,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -8932,7 +8983,7 @@
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
       <c r="R174" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="S174" s="3"/>
       <c r="T174" s="3"/>
@@ -8955,7 +9006,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -8973,7 +9024,7 @@
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
       <c r="R175" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="S175" s="3"/>
       <c r="T175" s="3"/>
@@ -8996,7 +9047,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -9014,7 +9065,7 @@
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
       <c r="R176" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="S176" s="3"/>
       <c r="T176" s="3"/>
@@ -9024,7 +9075,7 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
       <c r="Z176" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AA176" s="3"/>
       <c r="AB176" s="3"/>
@@ -9039,7 +9090,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -9057,7 +9108,7 @@
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
       <c r="R177" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="S177" s="3"/>
       <c r="T177" s="3"/>
@@ -9080,7 +9131,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -9098,7 +9149,7 @@
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
       <c r="R178" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="S178" s="3"/>
       <c r="T178" s="3"/>
@@ -9121,7 +9172,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -9139,7 +9190,7 @@
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
       <c r="R179" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="S179" s="3"/>
       <c r="T179" s="3"/>
@@ -9149,7 +9200,7 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
       <c r="Z179" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AA179" s="3"/>
       <c r="AB179" s="3"/>
@@ -9164,7 +9215,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -9182,7 +9233,7 @@
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
       <c r="R180" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="S180" s="3"/>
       <c r="T180" s="3"/>
@@ -9205,7 +9256,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -9223,7 +9274,7 @@
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
       <c r="R181" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="S181" s="3"/>
       <c r="T181" s="3"/>
@@ -9246,7 +9297,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -9264,7 +9315,7 @@
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
       <c r="R182" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="S182" s="3"/>
       <c r="T182" s="3"/>
@@ -9274,7 +9325,7 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
       <c r="Z182" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AA182" s="3"/>
       <c r="AB182" s="3"/>
@@ -9289,7 +9340,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -9307,7 +9358,7 @@
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
       <c r="R183" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="S183" s="3"/>
       <c r="T183" s="3"/>
@@ -9330,7 +9381,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -9348,7 +9399,7 @@
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
       <c r="R184" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="S184" s="3"/>
       <c r="T184" s="3"/>
@@ -9371,7 +9422,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -9389,7 +9440,7 @@
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
       <c r="R185" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="S185" s="3"/>
       <c r="T185" s="3"/>
@@ -9399,7 +9450,7 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
       <c r="Z185" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AA185" s="3"/>
       <c r="AB185" s="3"/>
@@ -9414,7 +9465,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -9432,7 +9483,7 @@
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
       <c r="R186" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="S186" s="3"/>
       <c r="T186" s="3"/>
@@ -9455,7 +9506,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -9473,7 +9524,7 @@
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
       <c r="R187" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="S187" s="3"/>
       <c r="T187" s="3"/>
@@ -9496,7 +9547,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -9514,7 +9565,7 @@
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
       <c r="R188" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="S188" s="3"/>
       <c r="T188" s="3"/>
@@ -9524,7 +9575,7 @@
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
       <c r="Z188" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AA188" s="3"/>
       <c r="AB188" s="3"/>
@@ -9539,7 +9590,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -9557,7 +9608,7 @@
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
       <c r="R189" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
@@ -9580,7 +9631,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -9598,7 +9649,7 @@
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
       <c r="R190" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="S190" s="3"/>
       <c r="T190" s="3"/>
@@ -9621,7 +9672,7 @@
         <v>188</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -9639,7 +9690,7 @@
       <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
       <c r="R191" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="S191" s="3"/>
       <c r="T191" s="3"/>
@@ -9649,7 +9700,7 @@
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
       <c r="Z191" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AA191" s="3"/>
       <c r="AB191" s="3"/>
@@ -9664,7 +9715,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -9682,7 +9733,7 @@
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
       <c r="R192" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="S192" s="3"/>
       <c r="T192" s="3"/>
@@ -9705,7 +9756,7 @@
         <v>190</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -9723,7 +9774,7 @@
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
       <c r="R193" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="S193" s="3"/>
       <c r="T193" s="3"/>
@@ -9746,7 +9797,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -9764,7 +9815,7 @@
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
       <c r="R194" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="S194" s="3"/>
       <c r="T194" s="3"/>
@@ -9774,7 +9825,7 @@
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
       <c r="Z194" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
@@ -9789,7 +9840,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -9807,7 +9858,7 @@
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
       <c r="R195" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="S195" s="3"/>
       <c r="T195" s="3"/>
@@ -9830,7 +9881,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -9848,7 +9899,7 @@
       <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
       <c r="R196" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="S196" s="3"/>
       <c r="T196" s="3"/>
@@ -9871,7 +9922,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -9889,7 +9940,7 @@
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
       <c r="R197" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="S197" s="3"/>
       <c r="T197" s="3"/>
@@ -9899,7 +9950,7 @@
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
       <c r="Z197" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AA197" s="3"/>
       <c r="AB197" s="3"/>
@@ -9914,7 +9965,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -9924,7 +9975,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
@@ -9934,7 +9985,7 @@
       <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
       <c r="R198" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="S198" s="3"/>
       <c r="T198" s="3"/>
@@ -9944,7 +9995,7 @@
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
       <c r="Z198" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
@@ -9959,7 +10010,7 @@
         <v>196</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -9998,7 +10049,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -10037,7 +10088,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -10076,7 +10127,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -11488,16 +11539,480 @@
     </row>
   </sheetData>
   <mergeCells count="508">
-    <mergeCell ref="Z179:AG179"/>
-    <mergeCell ref="Z182:AG182"/>
-    <mergeCell ref="Z185:AG185"/>
-    <mergeCell ref="Z188:AG188"/>
-    <mergeCell ref="Z191:AG191"/>
-    <mergeCell ref="Z194:AG194"/>
-    <mergeCell ref="Z197:AG197"/>
-    <mergeCell ref="R191:Y191"/>
-    <mergeCell ref="R194:Y194"/>
-    <mergeCell ref="R197:Y197"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="J206:M206"/>
+    <mergeCell ref="N206:AG206"/>
+    <mergeCell ref="B209:I209"/>
+    <mergeCell ref="J209:M209"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="J203:M203"/>
+    <mergeCell ref="N203:AG203"/>
+    <mergeCell ref="B204:I204"/>
+    <mergeCell ref="J204:M204"/>
+    <mergeCell ref="N204:AG204"/>
+    <mergeCell ref="B205:I205"/>
+    <mergeCell ref="J205:M205"/>
+    <mergeCell ref="N205:AG205"/>
+    <mergeCell ref="N209:AG209"/>
+    <mergeCell ref="B217:I217"/>
+    <mergeCell ref="J217:M217"/>
+    <mergeCell ref="N217:AG217"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="J210:M210"/>
+    <mergeCell ref="N210:AG210"/>
+    <mergeCell ref="B207:I207"/>
+    <mergeCell ref="J207:M207"/>
+    <mergeCell ref="N207:AG207"/>
+    <mergeCell ref="B208:I208"/>
+    <mergeCell ref="J208:M208"/>
+    <mergeCell ref="N208:AG208"/>
+    <mergeCell ref="B225:I225"/>
+    <mergeCell ref="J225:M225"/>
+    <mergeCell ref="N225:AG225"/>
+    <mergeCell ref="B218:I218"/>
+    <mergeCell ref="J218:M218"/>
+    <mergeCell ref="N218:AG218"/>
+    <mergeCell ref="B211:I211"/>
+    <mergeCell ref="J211:M211"/>
+    <mergeCell ref="N211:AG211"/>
+    <mergeCell ref="B212:I212"/>
+    <mergeCell ref="J212:M212"/>
+    <mergeCell ref="N212:AG212"/>
+    <mergeCell ref="B213:I213"/>
+    <mergeCell ref="J213:M213"/>
+    <mergeCell ref="N213:AG213"/>
+    <mergeCell ref="B214:I214"/>
+    <mergeCell ref="J214:M214"/>
+    <mergeCell ref="N214:AG214"/>
+    <mergeCell ref="B215:I215"/>
+    <mergeCell ref="J215:M215"/>
+    <mergeCell ref="N215:AG215"/>
+    <mergeCell ref="B216:I216"/>
+    <mergeCell ref="J216:M216"/>
+    <mergeCell ref="N216:AG216"/>
+    <mergeCell ref="B233:I233"/>
+    <mergeCell ref="J233:M233"/>
+    <mergeCell ref="N233:AG233"/>
+    <mergeCell ref="B226:I226"/>
+    <mergeCell ref="J226:M226"/>
+    <mergeCell ref="N226:AG226"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="J219:M219"/>
+    <mergeCell ref="N219:AG219"/>
+    <mergeCell ref="B220:I220"/>
+    <mergeCell ref="J220:M220"/>
+    <mergeCell ref="N220:AG220"/>
+    <mergeCell ref="B221:I221"/>
+    <mergeCell ref="J221:M221"/>
+    <mergeCell ref="N221:AG221"/>
+    <mergeCell ref="B222:I222"/>
+    <mergeCell ref="J222:M222"/>
+    <mergeCell ref="N222:AG222"/>
+    <mergeCell ref="B223:I223"/>
+    <mergeCell ref="J223:M223"/>
+    <mergeCell ref="N223:AG223"/>
+    <mergeCell ref="B224:I224"/>
+    <mergeCell ref="J224:M224"/>
+    <mergeCell ref="N224:AG224"/>
+    <mergeCell ref="B201:AG201"/>
+    <mergeCell ref="B202:AG202"/>
+    <mergeCell ref="B197:Q197"/>
+    <mergeCell ref="B234:I234"/>
+    <mergeCell ref="J234:M234"/>
+    <mergeCell ref="N234:AG234"/>
+    <mergeCell ref="B227:I227"/>
+    <mergeCell ref="J227:M227"/>
+    <mergeCell ref="N227:AG227"/>
+    <mergeCell ref="B228:I228"/>
+    <mergeCell ref="J228:M228"/>
+    <mergeCell ref="N228:AG228"/>
+    <mergeCell ref="B229:I229"/>
+    <mergeCell ref="J229:M229"/>
+    <mergeCell ref="N229:AG229"/>
+    <mergeCell ref="B230:I230"/>
+    <mergeCell ref="J230:M230"/>
+    <mergeCell ref="N230:AG230"/>
+    <mergeCell ref="B231:I231"/>
+    <mergeCell ref="J231:M231"/>
+    <mergeCell ref="N231:AG231"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="J232:M232"/>
+    <mergeCell ref="N232:AG232"/>
+    <mergeCell ref="B191:Q191"/>
+    <mergeCell ref="B179:Q179"/>
+    <mergeCell ref="B180:Q180"/>
+    <mergeCell ref="R180:AG180"/>
+    <mergeCell ref="B181:Q181"/>
+    <mergeCell ref="R181:AG181"/>
+    <mergeCell ref="B182:Q182"/>
+    <mergeCell ref="B199:AG199"/>
+    <mergeCell ref="B200:AG200"/>
+    <mergeCell ref="B192:Q192"/>
+    <mergeCell ref="R192:AG192"/>
+    <mergeCell ref="B193:Q193"/>
+    <mergeCell ref="R193:AG193"/>
+    <mergeCell ref="B194:Q194"/>
+    <mergeCell ref="B195:Q195"/>
+    <mergeCell ref="R195:AG195"/>
+    <mergeCell ref="B196:Q196"/>
+    <mergeCell ref="R196:AG196"/>
+    <mergeCell ref="R185:Y185"/>
+    <mergeCell ref="R188:Y188"/>
+    <mergeCell ref="B183:Q183"/>
+    <mergeCell ref="R183:AG183"/>
+    <mergeCell ref="B184:Q184"/>
+    <mergeCell ref="R184:AG184"/>
+    <mergeCell ref="B155:Q155"/>
+    <mergeCell ref="B156:Q156"/>
+    <mergeCell ref="R156:AG156"/>
+    <mergeCell ref="B157:Q157"/>
+    <mergeCell ref="R157:AG157"/>
+    <mergeCell ref="B158:Q158"/>
+    <mergeCell ref="B159:Q159"/>
+    <mergeCell ref="R159:AG159"/>
+    <mergeCell ref="B160:Q160"/>
+    <mergeCell ref="R160:AG160"/>
+    <mergeCell ref="B25:AG25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="B146:Q146"/>
+    <mergeCell ref="R146:AG146"/>
+    <mergeCell ref="B147:Q147"/>
+    <mergeCell ref="B148:Q148"/>
+    <mergeCell ref="R147:AG147"/>
+    <mergeCell ref="R148:AG148"/>
+    <mergeCell ref="R36:Y36"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="R34:Y34"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="R35:AG35"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="R33:AG33"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="R31:AG31"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="R32:Y32"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="R42:Y42"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:Y24"/>
+    <mergeCell ref="Z24:AG24"/>
+    <mergeCell ref="Z21:AG21"/>
+    <mergeCell ref="R22:Y22"/>
+    <mergeCell ref="Z22:AG22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:Y23"/>
+    <mergeCell ref="Z23:AG23"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R21:Y21"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="Z18:AG18"/>
+    <mergeCell ref="R19:Y19"/>
+    <mergeCell ref="Z19:AG19"/>
+    <mergeCell ref="R20:Y20"/>
+    <mergeCell ref="Z20:AG20"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:Y15"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:Y17"/>
+    <mergeCell ref="Z17:AG17"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="R12:AG12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:Y13"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="B5:AG5"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="R29:AG29"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="R30:Y30"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="R27:AG27"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="B4:AG4"/>
+    <mergeCell ref="B6:AG6"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="R7:AG7"/>
+    <mergeCell ref="R8:AG8"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="R9:AG9"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="R10:AG10"/>
+    <mergeCell ref="B11:Q11"/>
+    <mergeCell ref="R11:AG11"/>
+    <mergeCell ref="R37:AG37"/>
+    <mergeCell ref="B38:Q38"/>
+    <mergeCell ref="R38:Y38"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="R39:AG39"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="R46:Y46"/>
+    <mergeCell ref="R41:AG41"/>
+    <mergeCell ref="B41:Q41"/>
+    <mergeCell ref="R40:Y40"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B47:Q47"/>
+    <mergeCell ref="R47:AG47"/>
+    <mergeCell ref="B48:Q48"/>
+    <mergeCell ref="R48:Y48"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="R43:AG43"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="R44:Y44"/>
+    <mergeCell ref="B45:Q45"/>
+    <mergeCell ref="R45:AG45"/>
+    <mergeCell ref="B52:Q52"/>
+    <mergeCell ref="R52:Y52"/>
+    <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="R53:AG53"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="R54:Y54"/>
+    <mergeCell ref="B49:Q49"/>
+    <mergeCell ref="R49:AG49"/>
+    <mergeCell ref="B50:Q50"/>
+    <mergeCell ref="R50:Y50"/>
+    <mergeCell ref="B51:Q51"/>
+    <mergeCell ref="R51:AG51"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="B59:Q59"/>
+    <mergeCell ref="R59:AG59"/>
+    <mergeCell ref="B60:Q60"/>
+    <mergeCell ref="R60:Y60"/>
+    <mergeCell ref="B55:Q55"/>
+    <mergeCell ref="R55:AG55"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="R56:Y56"/>
+    <mergeCell ref="B57:Q57"/>
+    <mergeCell ref="R57:AG57"/>
+    <mergeCell ref="R71:AG71"/>
+    <mergeCell ref="R72:AG72"/>
+    <mergeCell ref="R73:AG73"/>
+    <mergeCell ref="B87:Q87"/>
+    <mergeCell ref="B88:Q88"/>
+    <mergeCell ref="B89:Q89"/>
+    <mergeCell ref="B90:Q90"/>
+    <mergeCell ref="B91:Q91"/>
+    <mergeCell ref="B82:Q82"/>
+    <mergeCell ref="B83:Q83"/>
+    <mergeCell ref="B84:Q84"/>
+    <mergeCell ref="B85:Q85"/>
+    <mergeCell ref="B86:Q86"/>
+    <mergeCell ref="B77:Q77"/>
+    <mergeCell ref="B78:Q78"/>
+    <mergeCell ref="B79:Q79"/>
+    <mergeCell ref="B80:Q80"/>
+    <mergeCell ref="B81:Q81"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B73:Q73"/>
+    <mergeCell ref="B74:Q74"/>
+    <mergeCell ref="B75:Q75"/>
+    <mergeCell ref="B76:Q76"/>
+    <mergeCell ref="B71:Q71"/>
+    <mergeCell ref="R62:AG62"/>
+    <mergeCell ref="R63:AG63"/>
+    <mergeCell ref="R64:AG64"/>
+    <mergeCell ref="R65:AG65"/>
+    <mergeCell ref="R66:AG66"/>
+    <mergeCell ref="R67:AG67"/>
+    <mergeCell ref="R68:AG68"/>
+    <mergeCell ref="R69:AG69"/>
+    <mergeCell ref="R70:AG70"/>
+    <mergeCell ref="R79:AG79"/>
+    <mergeCell ref="R80:AG80"/>
+    <mergeCell ref="R81:AG81"/>
+    <mergeCell ref="R82:AG82"/>
+    <mergeCell ref="R83:AG83"/>
+    <mergeCell ref="R74:AG74"/>
+    <mergeCell ref="R75:AG75"/>
+    <mergeCell ref="R76:AG76"/>
+    <mergeCell ref="R77:AG77"/>
+    <mergeCell ref="R78:AG78"/>
+    <mergeCell ref="R89:AG89"/>
+    <mergeCell ref="R90:AG90"/>
+    <mergeCell ref="R91:AG91"/>
+    <mergeCell ref="R92:AG92"/>
+    <mergeCell ref="R93:AG93"/>
+    <mergeCell ref="R84:AG84"/>
+    <mergeCell ref="R85:AG85"/>
+    <mergeCell ref="R86:AG86"/>
+    <mergeCell ref="R87:AG87"/>
+    <mergeCell ref="R88:AG88"/>
+    <mergeCell ref="B100:Q100"/>
+    <mergeCell ref="B101:Q101"/>
+    <mergeCell ref="B102:Q102"/>
+    <mergeCell ref="B103:Q103"/>
+    <mergeCell ref="B104:Q104"/>
+    <mergeCell ref="B61:Q61"/>
+    <mergeCell ref="B96:Q96"/>
+    <mergeCell ref="B97:Q97"/>
+    <mergeCell ref="B98:Q98"/>
+    <mergeCell ref="B99:Q99"/>
+    <mergeCell ref="B92:Q92"/>
+    <mergeCell ref="B93:Q93"/>
+    <mergeCell ref="B94:Q94"/>
+    <mergeCell ref="B95:Q95"/>
+    <mergeCell ref="B67:Q67"/>
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="B69:Q69"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="B63:Q63"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="B65:Q65"/>
+    <mergeCell ref="B66:Q66"/>
+    <mergeCell ref="B110:Q110"/>
+    <mergeCell ref="B111:Q111"/>
+    <mergeCell ref="B112:Q112"/>
+    <mergeCell ref="B113:Q113"/>
+    <mergeCell ref="B114:Q114"/>
+    <mergeCell ref="B105:Q105"/>
+    <mergeCell ref="B106:Q106"/>
+    <mergeCell ref="B107:Q107"/>
+    <mergeCell ref="B108:Q108"/>
+    <mergeCell ref="B109:Q109"/>
+    <mergeCell ref="R108:AG108"/>
+    <mergeCell ref="R110:AG110"/>
+    <mergeCell ref="R111:AG111"/>
+    <mergeCell ref="B135:Q135"/>
+    <mergeCell ref="B136:Q136"/>
+    <mergeCell ref="B137:Q137"/>
+    <mergeCell ref="B138:Q138"/>
+    <mergeCell ref="B139:Q139"/>
+    <mergeCell ref="B130:Q130"/>
+    <mergeCell ref="B131:Q131"/>
+    <mergeCell ref="B132:Q132"/>
+    <mergeCell ref="B133:Q133"/>
+    <mergeCell ref="B134:Q134"/>
+    <mergeCell ref="B125:Q125"/>
+    <mergeCell ref="B126:Q126"/>
+    <mergeCell ref="B127:Q127"/>
+    <mergeCell ref="B128:Q128"/>
+    <mergeCell ref="B129:Q129"/>
+    <mergeCell ref="B120:Q120"/>
+    <mergeCell ref="B121:Q121"/>
+    <mergeCell ref="B122:Q122"/>
+    <mergeCell ref="B123:Q123"/>
+    <mergeCell ref="B124:Q124"/>
+    <mergeCell ref="B115:Q115"/>
+    <mergeCell ref="R95:AG95"/>
+    <mergeCell ref="R96:AG96"/>
+    <mergeCell ref="R98:AG98"/>
+    <mergeCell ref="R99:AG99"/>
+    <mergeCell ref="R101:AG101"/>
+    <mergeCell ref="R102:AG102"/>
+    <mergeCell ref="R104:AG104"/>
+    <mergeCell ref="R105:AG105"/>
+    <mergeCell ref="R107:AG107"/>
+    <mergeCell ref="R113:AG113"/>
+    <mergeCell ref="R114:AG114"/>
+    <mergeCell ref="R116:AG116"/>
+    <mergeCell ref="R117:AG117"/>
+    <mergeCell ref="R119:AG119"/>
+    <mergeCell ref="R120:AG120"/>
+    <mergeCell ref="R122:AG122"/>
+    <mergeCell ref="R123:AG123"/>
+    <mergeCell ref="R125:AG125"/>
+    <mergeCell ref="B140:Q140"/>
+    <mergeCell ref="B141:Q141"/>
+    <mergeCell ref="B142:Q142"/>
+    <mergeCell ref="B143:Q143"/>
+    <mergeCell ref="B116:Q116"/>
+    <mergeCell ref="B117:Q117"/>
+    <mergeCell ref="B118:Q118"/>
+    <mergeCell ref="B119:Q119"/>
+    <mergeCell ref="R128:AG128"/>
+    <mergeCell ref="R129:AG129"/>
+    <mergeCell ref="R131:AG131"/>
+    <mergeCell ref="R132:AG132"/>
+    <mergeCell ref="R134:AG134"/>
+    <mergeCell ref="R135:AG135"/>
+    <mergeCell ref="R137:AG137"/>
+    <mergeCell ref="R138:AG138"/>
+    <mergeCell ref="R140:AG140"/>
+    <mergeCell ref="R141:AG141"/>
+    <mergeCell ref="R126:AG126"/>
+    <mergeCell ref="B161:Q161"/>
+    <mergeCell ref="B162:Q162"/>
+    <mergeCell ref="R162:AG162"/>
+    <mergeCell ref="B163:Q163"/>
+    <mergeCell ref="R163:AG163"/>
+    <mergeCell ref="B164:Q164"/>
+    <mergeCell ref="B165:Q165"/>
+    <mergeCell ref="R165:AG165"/>
+    <mergeCell ref="B166:Q166"/>
+    <mergeCell ref="R166:AG166"/>
+    <mergeCell ref="B175:Q175"/>
+    <mergeCell ref="R175:AG175"/>
+    <mergeCell ref="B176:Q176"/>
+    <mergeCell ref="B177:Q177"/>
+    <mergeCell ref="R177:AG177"/>
+    <mergeCell ref="B178:Q178"/>
+    <mergeCell ref="R178:AG178"/>
+    <mergeCell ref="B167:Q167"/>
+    <mergeCell ref="B168:Q168"/>
+    <mergeCell ref="R168:AG168"/>
+    <mergeCell ref="B169:Q169"/>
+    <mergeCell ref="R169:AG169"/>
+    <mergeCell ref="B170:Q170"/>
+    <mergeCell ref="B171:Q171"/>
+    <mergeCell ref="R171:AG171"/>
+    <mergeCell ref="B172:Q172"/>
+    <mergeCell ref="R172:AG172"/>
+    <mergeCell ref="B187:Q187"/>
+    <mergeCell ref="R187:AG187"/>
+    <mergeCell ref="R149:AG149"/>
+    <mergeCell ref="B150:Q150"/>
+    <mergeCell ref="R150:AG150"/>
+    <mergeCell ref="B151:Q151"/>
+    <mergeCell ref="R151:AG151"/>
+    <mergeCell ref="B152:Q152"/>
+    <mergeCell ref="B153:Q153"/>
+    <mergeCell ref="R153:AG153"/>
+    <mergeCell ref="B154:Q154"/>
+    <mergeCell ref="R154:AG154"/>
+    <mergeCell ref="R152:Y152"/>
+    <mergeCell ref="R155:Y155"/>
+    <mergeCell ref="R158:Y158"/>
+    <mergeCell ref="R161:Y161"/>
+    <mergeCell ref="R164:Y164"/>
+    <mergeCell ref="R167:Y167"/>
+    <mergeCell ref="R170:Y170"/>
+    <mergeCell ref="R173:Y173"/>
+    <mergeCell ref="R176:Y176"/>
+    <mergeCell ref="B173:Q173"/>
+    <mergeCell ref="B174:Q174"/>
+    <mergeCell ref="R174:AG174"/>
     <mergeCell ref="Z198:AG198"/>
     <mergeCell ref="R198:Y198"/>
     <mergeCell ref="J198:Q198"/>
@@ -11522,480 +12037,16 @@
     <mergeCell ref="B185:Q185"/>
     <mergeCell ref="B186:Q186"/>
     <mergeCell ref="R186:AG186"/>
-    <mergeCell ref="B187:Q187"/>
-    <mergeCell ref="R187:AG187"/>
-    <mergeCell ref="R149:AG149"/>
-    <mergeCell ref="B150:Q150"/>
-    <mergeCell ref="R150:AG150"/>
-    <mergeCell ref="B151:Q151"/>
-    <mergeCell ref="R151:AG151"/>
-    <mergeCell ref="B152:Q152"/>
-    <mergeCell ref="B153:Q153"/>
-    <mergeCell ref="R153:AG153"/>
-    <mergeCell ref="B154:Q154"/>
-    <mergeCell ref="R154:AG154"/>
-    <mergeCell ref="R152:Y152"/>
-    <mergeCell ref="R155:Y155"/>
-    <mergeCell ref="R158:Y158"/>
-    <mergeCell ref="R161:Y161"/>
-    <mergeCell ref="R164:Y164"/>
-    <mergeCell ref="R167:Y167"/>
-    <mergeCell ref="R170:Y170"/>
-    <mergeCell ref="R173:Y173"/>
-    <mergeCell ref="R176:Y176"/>
-    <mergeCell ref="B173:Q173"/>
-    <mergeCell ref="B174:Q174"/>
-    <mergeCell ref="R174:AG174"/>
-    <mergeCell ref="B175:Q175"/>
-    <mergeCell ref="R175:AG175"/>
-    <mergeCell ref="B176:Q176"/>
-    <mergeCell ref="B177:Q177"/>
-    <mergeCell ref="R177:AG177"/>
-    <mergeCell ref="B178:Q178"/>
-    <mergeCell ref="R178:AG178"/>
-    <mergeCell ref="B167:Q167"/>
-    <mergeCell ref="B168:Q168"/>
-    <mergeCell ref="R168:AG168"/>
-    <mergeCell ref="B169:Q169"/>
-    <mergeCell ref="R169:AG169"/>
-    <mergeCell ref="B170:Q170"/>
-    <mergeCell ref="B171:Q171"/>
-    <mergeCell ref="R171:AG171"/>
-    <mergeCell ref="B172:Q172"/>
-    <mergeCell ref="R172:AG172"/>
-    <mergeCell ref="B161:Q161"/>
-    <mergeCell ref="B162:Q162"/>
-    <mergeCell ref="R162:AG162"/>
-    <mergeCell ref="B163:Q163"/>
-    <mergeCell ref="R163:AG163"/>
-    <mergeCell ref="B164:Q164"/>
-    <mergeCell ref="B165:Q165"/>
-    <mergeCell ref="R165:AG165"/>
-    <mergeCell ref="B166:Q166"/>
-    <mergeCell ref="R166:AG166"/>
-    <mergeCell ref="B140:Q140"/>
-    <mergeCell ref="B141:Q141"/>
-    <mergeCell ref="B142:Q142"/>
-    <mergeCell ref="B143:Q143"/>
-    <mergeCell ref="B116:Q116"/>
-    <mergeCell ref="B117:Q117"/>
-    <mergeCell ref="B118:Q118"/>
-    <mergeCell ref="B119:Q119"/>
-    <mergeCell ref="R128:AG128"/>
-    <mergeCell ref="R129:AG129"/>
-    <mergeCell ref="R131:AG131"/>
-    <mergeCell ref="R132:AG132"/>
-    <mergeCell ref="R134:AG134"/>
-    <mergeCell ref="R135:AG135"/>
-    <mergeCell ref="R137:AG137"/>
-    <mergeCell ref="R138:AG138"/>
-    <mergeCell ref="R140:AG140"/>
-    <mergeCell ref="R141:AG141"/>
-    <mergeCell ref="R126:AG126"/>
-    <mergeCell ref="R113:AG113"/>
-    <mergeCell ref="R114:AG114"/>
-    <mergeCell ref="R116:AG116"/>
-    <mergeCell ref="R117:AG117"/>
-    <mergeCell ref="R119:AG119"/>
-    <mergeCell ref="R120:AG120"/>
-    <mergeCell ref="R122:AG122"/>
-    <mergeCell ref="R123:AG123"/>
-    <mergeCell ref="R125:AG125"/>
-    <mergeCell ref="R95:AG95"/>
-    <mergeCell ref="R96:AG96"/>
-    <mergeCell ref="R98:AG98"/>
-    <mergeCell ref="R99:AG99"/>
-    <mergeCell ref="R101:AG101"/>
-    <mergeCell ref="R102:AG102"/>
-    <mergeCell ref="R104:AG104"/>
-    <mergeCell ref="R105:AG105"/>
-    <mergeCell ref="R107:AG107"/>
-    <mergeCell ref="R108:AG108"/>
-    <mergeCell ref="R110:AG110"/>
-    <mergeCell ref="R111:AG111"/>
-    <mergeCell ref="B135:Q135"/>
-    <mergeCell ref="B136:Q136"/>
-    <mergeCell ref="B137:Q137"/>
-    <mergeCell ref="B138:Q138"/>
-    <mergeCell ref="B139:Q139"/>
-    <mergeCell ref="B130:Q130"/>
-    <mergeCell ref="B131:Q131"/>
-    <mergeCell ref="B132:Q132"/>
-    <mergeCell ref="B133:Q133"/>
-    <mergeCell ref="B134:Q134"/>
-    <mergeCell ref="B125:Q125"/>
-    <mergeCell ref="B126:Q126"/>
-    <mergeCell ref="B127:Q127"/>
-    <mergeCell ref="B128:Q128"/>
-    <mergeCell ref="B129:Q129"/>
-    <mergeCell ref="B120:Q120"/>
-    <mergeCell ref="B121:Q121"/>
-    <mergeCell ref="B122:Q122"/>
-    <mergeCell ref="B123:Q123"/>
-    <mergeCell ref="B124:Q124"/>
-    <mergeCell ref="B115:Q115"/>
-    <mergeCell ref="B110:Q110"/>
-    <mergeCell ref="B111:Q111"/>
-    <mergeCell ref="B112:Q112"/>
-    <mergeCell ref="B113:Q113"/>
-    <mergeCell ref="B114:Q114"/>
-    <mergeCell ref="B105:Q105"/>
-    <mergeCell ref="B106:Q106"/>
-    <mergeCell ref="B107:Q107"/>
-    <mergeCell ref="B108:Q108"/>
-    <mergeCell ref="B109:Q109"/>
-    <mergeCell ref="B100:Q100"/>
-    <mergeCell ref="B101:Q101"/>
-    <mergeCell ref="B102:Q102"/>
-    <mergeCell ref="B103:Q103"/>
-    <mergeCell ref="B104:Q104"/>
-    <mergeCell ref="B61:Q61"/>
-    <mergeCell ref="B96:Q96"/>
-    <mergeCell ref="B97:Q97"/>
-    <mergeCell ref="B98:Q98"/>
-    <mergeCell ref="B99:Q99"/>
-    <mergeCell ref="B92:Q92"/>
-    <mergeCell ref="B93:Q93"/>
-    <mergeCell ref="B94:Q94"/>
-    <mergeCell ref="B95:Q95"/>
-    <mergeCell ref="B67:Q67"/>
-    <mergeCell ref="B68:Q68"/>
-    <mergeCell ref="B69:Q69"/>
-    <mergeCell ref="B70:Q70"/>
-    <mergeCell ref="B62:Q62"/>
-    <mergeCell ref="B63:Q63"/>
-    <mergeCell ref="B64:Q64"/>
-    <mergeCell ref="B65:Q65"/>
-    <mergeCell ref="B66:Q66"/>
-    <mergeCell ref="R89:AG89"/>
-    <mergeCell ref="R90:AG90"/>
-    <mergeCell ref="R91:AG91"/>
-    <mergeCell ref="R92:AG92"/>
-    <mergeCell ref="R93:AG93"/>
-    <mergeCell ref="R84:AG84"/>
-    <mergeCell ref="R85:AG85"/>
-    <mergeCell ref="R86:AG86"/>
-    <mergeCell ref="R87:AG87"/>
-    <mergeCell ref="R88:AG88"/>
-    <mergeCell ref="R79:AG79"/>
-    <mergeCell ref="R80:AG80"/>
-    <mergeCell ref="R81:AG81"/>
-    <mergeCell ref="R82:AG82"/>
-    <mergeCell ref="R83:AG83"/>
-    <mergeCell ref="R74:AG74"/>
-    <mergeCell ref="R75:AG75"/>
-    <mergeCell ref="R76:AG76"/>
-    <mergeCell ref="R77:AG77"/>
-    <mergeCell ref="R78:AG78"/>
-    <mergeCell ref="R62:AG62"/>
-    <mergeCell ref="R63:AG63"/>
-    <mergeCell ref="R64:AG64"/>
-    <mergeCell ref="R65:AG65"/>
-    <mergeCell ref="R66:AG66"/>
-    <mergeCell ref="R67:AG67"/>
-    <mergeCell ref="R68:AG68"/>
-    <mergeCell ref="R69:AG69"/>
-    <mergeCell ref="R70:AG70"/>
-    <mergeCell ref="R71:AG71"/>
-    <mergeCell ref="R72:AG72"/>
-    <mergeCell ref="R73:AG73"/>
-    <mergeCell ref="B87:Q87"/>
-    <mergeCell ref="B88:Q88"/>
-    <mergeCell ref="B89:Q89"/>
-    <mergeCell ref="B90:Q90"/>
-    <mergeCell ref="B91:Q91"/>
-    <mergeCell ref="B82:Q82"/>
-    <mergeCell ref="B83:Q83"/>
-    <mergeCell ref="B84:Q84"/>
-    <mergeCell ref="B85:Q85"/>
-    <mergeCell ref="B86:Q86"/>
-    <mergeCell ref="B77:Q77"/>
-    <mergeCell ref="B78:Q78"/>
-    <mergeCell ref="B79:Q79"/>
-    <mergeCell ref="B80:Q80"/>
-    <mergeCell ref="B81:Q81"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B73:Q73"/>
-    <mergeCell ref="B74:Q74"/>
-    <mergeCell ref="B75:Q75"/>
-    <mergeCell ref="B76:Q76"/>
-    <mergeCell ref="B71:Q71"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="B59:Q59"/>
-    <mergeCell ref="R59:AG59"/>
-    <mergeCell ref="B60:Q60"/>
-    <mergeCell ref="R60:Y60"/>
-    <mergeCell ref="B55:Q55"/>
-    <mergeCell ref="R55:AG55"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="R56:Y56"/>
-    <mergeCell ref="B57:Q57"/>
-    <mergeCell ref="R57:AG57"/>
-    <mergeCell ref="B52:Q52"/>
-    <mergeCell ref="R52:Y52"/>
-    <mergeCell ref="B53:Q53"/>
-    <mergeCell ref="R53:AG53"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="R54:Y54"/>
-    <mergeCell ref="B49:Q49"/>
-    <mergeCell ref="R49:AG49"/>
-    <mergeCell ref="B50:Q50"/>
-    <mergeCell ref="R50:Y50"/>
-    <mergeCell ref="B51:Q51"/>
-    <mergeCell ref="R51:AG51"/>
-    <mergeCell ref="B47:Q47"/>
-    <mergeCell ref="R47:AG47"/>
-    <mergeCell ref="B48:Q48"/>
-    <mergeCell ref="R48:Y48"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="R43:AG43"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="R44:Y44"/>
-    <mergeCell ref="B45:Q45"/>
-    <mergeCell ref="R45:AG45"/>
-    <mergeCell ref="R37:AG37"/>
-    <mergeCell ref="B38:Q38"/>
-    <mergeCell ref="R38:Y38"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="R39:AG39"/>
-    <mergeCell ref="B46:Q46"/>
-    <mergeCell ref="R46:Y46"/>
-    <mergeCell ref="R41:AG41"/>
-    <mergeCell ref="B41:Q41"/>
-    <mergeCell ref="R40:Y40"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B5:AG5"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="R29:AG29"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="R30:Y30"/>
-    <mergeCell ref="B27:Q27"/>
-    <mergeCell ref="R27:AG27"/>
-    <mergeCell ref="B28:Q28"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B6:AG6"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="R7:AG7"/>
-    <mergeCell ref="R8:AG8"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="R9:AG9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="R10:AG10"/>
-    <mergeCell ref="B11:Q11"/>
-    <mergeCell ref="R11:AG11"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="R12:AG12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:Y13"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:Y15"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:Y17"/>
-    <mergeCell ref="Z17:AG17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R18:Y18"/>
-    <mergeCell ref="Z18:AG18"/>
-    <mergeCell ref="R19:Y19"/>
-    <mergeCell ref="Z19:AG19"/>
-    <mergeCell ref="R20:Y20"/>
-    <mergeCell ref="Z20:AG20"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:Y24"/>
-    <mergeCell ref="Z24:AG24"/>
-    <mergeCell ref="Z21:AG21"/>
-    <mergeCell ref="R22:Y22"/>
-    <mergeCell ref="Z22:AG22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:Y23"/>
-    <mergeCell ref="Z23:AG23"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R21:Y21"/>
-    <mergeCell ref="B25:AG25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="B146:Q146"/>
-    <mergeCell ref="R146:AG146"/>
-    <mergeCell ref="B147:Q147"/>
-    <mergeCell ref="B148:Q148"/>
-    <mergeCell ref="R147:AG147"/>
-    <mergeCell ref="R148:AG148"/>
-    <mergeCell ref="R36:Y36"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="R34:Y34"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="R35:AG35"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="R33:AG33"/>
-    <mergeCell ref="B35:Q35"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="R31:AG31"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="R32:Y32"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="R42:Y42"/>
-    <mergeCell ref="B37:Q37"/>
-    <mergeCell ref="B155:Q155"/>
-    <mergeCell ref="B156:Q156"/>
-    <mergeCell ref="R156:AG156"/>
-    <mergeCell ref="B157:Q157"/>
-    <mergeCell ref="R157:AG157"/>
-    <mergeCell ref="B158:Q158"/>
-    <mergeCell ref="B159:Q159"/>
-    <mergeCell ref="R159:AG159"/>
-    <mergeCell ref="B160:Q160"/>
-    <mergeCell ref="R160:AG160"/>
-    <mergeCell ref="B191:Q191"/>
-    <mergeCell ref="B179:Q179"/>
-    <mergeCell ref="B180:Q180"/>
-    <mergeCell ref="R180:AG180"/>
-    <mergeCell ref="B181:Q181"/>
-    <mergeCell ref="R181:AG181"/>
-    <mergeCell ref="B182:Q182"/>
-    <mergeCell ref="B199:AG199"/>
-    <mergeCell ref="B200:AG200"/>
-    <mergeCell ref="B192:Q192"/>
-    <mergeCell ref="R192:AG192"/>
-    <mergeCell ref="B193:Q193"/>
-    <mergeCell ref="R193:AG193"/>
-    <mergeCell ref="B194:Q194"/>
-    <mergeCell ref="B195:Q195"/>
-    <mergeCell ref="R195:AG195"/>
-    <mergeCell ref="B196:Q196"/>
-    <mergeCell ref="R196:AG196"/>
-    <mergeCell ref="R185:Y185"/>
-    <mergeCell ref="R188:Y188"/>
-    <mergeCell ref="B183:Q183"/>
-    <mergeCell ref="R183:AG183"/>
-    <mergeCell ref="B184:Q184"/>
-    <mergeCell ref="R184:AG184"/>
-    <mergeCell ref="B201:AG201"/>
-    <mergeCell ref="B202:AG202"/>
-    <mergeCell ref="B197:Q197"/>
-    <mergeCell ref="B234:I234"/>
-    <mergeCell ref="J234:M234"/>
-    <mergeCell ref="N234:AG234"/>
-    <mergeCell ref="B227:I227"/>
-    <mergeCell ref="J227:M227"/>
-    <mergeCell ref="N227:AG227"/>
-    <mergeCell ref="B228:I228"/>
-    <mergeCell ref="J228:M228"/>
-    <mergeCell ref="N228:AG228"/>
-    <mergeCell ref="B229:I229"/>
-    <mergeCell ref="J229:M229"/>
-    <mergeCell ref="N229:AG229"/>
-    <mergeCell ref="B230:I230"/>
-    <mergeCell ref="J230:M230"/>
-    <mergeCell ref="N230:AG230"/>
-    <mergeCell ref="B231:I231"/>
-    <mergeCell ref="J231:M231"/>
-    <mergeCell ref="N231:AG231"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="J232:M232"/>
-    <mergeCell ref="N232:AG232"/>
-    <mergeCell ref="B233:I233"/>
-    <mergeCell ref="J233:M233"/>
-    <mergeCell ref="N233:AG233"/>
-    <mergeCell ref="B226:I226"/>
-    <mergeCell ref="J226:M226"/>
-    <mergeCell ref="N226:AG226"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="J219:M219"/>
-    <mergeCell ref="N219:AG219"/>
-    <mergeCell ref="B220:I220"/>
-    <mergeCell ref="J220:M220"/>
-    <mergeCell ref="N220:AG220"/>
-    <mergeCell ref="B221:I221"/>
-    <mergeCell ref="J221:M221"/>
-    <mergeCell ref="N221:AG221"/>
-    <mergeCell ref="B222:I222"/>
-    <mergeCell ref="J222:M222"/>
-    <mergeCell ref="N222:AG222"/>
-    <mergeCell ref="B223:I223"/>
-    <mergeCell ref="J223:M223"/>
-    <mergeCell ref="N223:AG223"/>
-    <mergeCell ref="B224:I224"/>
-    <mergeCell ref="J224:M224"/>
-    <mergeCell ref="N224:AG224"/>
-    <mergeCell ref="B225:I225"/>
-    <mergeCell ref="J225:M225"/>
-    <mergeCell ref="N225:AG225"/>
-    <mergeCell ref="B218:I218"/>
-    <mergeCell ref="J218:M218"/>
-    <mergeCell ref="N218:AG218"/>
-    <mergeCell ref="B211:I211"/>
-    <mergeCell ref="J211:M211"/>
-    <mergeCell ref="N211:AG211"/>
-    <mergeCell ref="B212:I212"/>
-    <mergeCell ref="J212:M212"/>
-    <mergeCell ref="N212:AG212"/>
-    <mergeCell ref="B213:I213"/>
-    <mergeCell ref="J213:M213"/>
-    <mergeCell ref="N213:AG213"/>
-    <mergeCell ref="B214:I214"/>
-    <mergeCell ref="J214:M214"/>
-    <mergeCell ref="N214:AG214"/>
-    <mergeCell ref="B215:I215"/>
-    <mergeCell ref="J215:M215"/>
-    <mergeCell ref="N215:AG215"/>
-    <mergeCell ref="B216:I216"/>
-    <mergeCell ref="J216:M216"/>
-    <mergeCell ref="N216:AG216"/>
-    <mergeCell ref="B217:I217"/>
-    <mergeCell ref="J217:M217"/>
-    <mergeCell ref="N217:AG217"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="J210:M210"/>
-    <mergeCell ref="N210:AG210"/>
-    <mergeCell ref="B207:I207"/>
-    <mergeCell ref="J207:M207"/>
-    <mergeCell ref="N207:AG207"/>
-    <mergeCell ref="B208:I208"/>
-    <mergeCell ref="J208:M208"/>
-    <mergeCell ref="N208:AG208"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="J206:M206"/>
-    <mergeCell ref="N206:AG206"/>
-    <mergeCell ref="B209:I209"/>
-    <mergeCell ref="J209:M209"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="J203:M203"/>
-    <mergeCell ref="N203:AG203"/>
-    <mergeCell ref="B204:I204"/>
-    <mergeCell ref="J204:M204"/>
-    <mergeCell ref="N204:AG204"/>
-    <mergeCell ref="B205:I205"/>
-    <mergeCell ref="J205:M205"/>
-    <mergeCell ref="N205:AG205"/>
-    <mergeCell ref="N209:AG209"/>
+    <mergeCell ref="Z179:AG179"/>
+    <mergeCell ref="Z182:AG182"/>
+    <mergeCell ref="Z185:AG185"/>
+    <mergeCell ref="Z188:AG188"/>
+    <mergeCell ref="Z191:AG191"/>
+    <mergeCell ref="Z194:AG194"/>
+    <mergeCell ref="Z197:AG197"/>
+    <mergeCell ref="R191:Y191"/>
+    <mergeCell ref="R194:Y194"/>
+    <mergeCell ref="R197:Y197"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12005,39 +12056,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB98447-D72A-4B38-880C-D85369C1EC78}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:AG52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>391</v>
       </c>
       <c r="B2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>392</v>
       </c>
       <c r="B3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>397</v>
       </c>
@@ -12045,7 +12113,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>396</v>
       </c>
@@ -12053,7 +12121,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>398</v>
       </c>
@@ -12061,7 +12129,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>399</v>
       </c>
@@ -12069,7 +12137,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>400</v>
       </c>
@@ -12077,36 +12145,68 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>401</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>144</v>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>532</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>255</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>538</v>
       </c>
       <c r="B12" t="s">
-        <v>410</v>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>539</v>
+      </c>
+      <c r="B16" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
